--- a/EPL Data/EPL Data.xlsx
+++ b/EPL Data/EPL Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COP511\NeverFindMe\EPL Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02D57C9-AF56-4ABD-8167-5AA79D7C443C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A688425F-5F40-4CEC-9601-66E486BE92B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21930" yWindow="3270" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Info" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4413" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4413" uniqueCount="1087">
   <si>
     <t>Name</t>
   </si>
@@ -3291,6 +3291,9 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -40414,7 +40417,7 @@
   <dimension ref="A1:T156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50100,8 +50103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7266FE60-FB1B-4DF0-A32D-B90E7126FDFD}">
   <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50111,7 +50114,7 @@
         <v>669</v>
       </c>
       <c r="B1" t="s">
-        <v>674</v>
+        <v>1086</v>
       </c>
       <c r="C1" t="s">
         <v>675</v>
@@ -64127,7 +64130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5FB72B-D17E-4903-B517-0FCCDE16602F}">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/EPL Data/EPL Data.xlsx
+++ b/EPL Data/EPL Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COP511\NeverFindMe\EPL Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A688425F-5F40-4CEC-9601-66E486BE92B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7438321A-C7D0-4C40-B7BA-80BDAF628AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Info" sheetId="1" r:id="rId1"/>
@@ -2057,9 +2057,6 @@
     <t>Away_Club</t>
   </si>
   <si>
-    <t>Win_Club</t>
-  </si>
-  <si>
     <t>Home_Goal</t>
   </si>
   <si>
@@ -3294,6 +3291,9 @@
   </si>
   <si>
     <t>Winner</t>
+  </si>
+  <si>
+    <t>Win_Team</t>
   </si>
 </sst>
 </file>
@@ -40416,8 +40416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DCE5D9-E308-4F80-B3D1-2050E2D121D9}">
   <dimension ref="A1:T156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40427,61 +40427,61 @@
         <v>669</v>
       </c>
       <c r="B1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1" t="s">
         <v>674</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>675</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>676</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>677</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>678</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>679</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>680</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>681</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>682</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>683</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>684</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>685</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>686</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>687</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>688</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>689</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>690</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>691</v>
-      </c>
-      <c r="T1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -40489,7 +40489,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -40551,7 +40551,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -40613,7 +40613,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -40675,7 +40675,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -40737,7 +40737,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -40799,7 +40799,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -40861,7 +40861,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -40923,7 +40923,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -40985,7 +40985,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -41047,7 +41047,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -41109,7 +41109,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -41171,7 +41171,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -41233,7 +41233,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -41295,7 +41295,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -41357,7 +41357,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -41419,7 +41419,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -41481,7 +41481,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -41543,7 +41543,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -41605,7 +41605,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -41667,7 +41667,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -41791,7 +41791,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -41853,7 +41853,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -41977,7 +41977,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -42039,7 +42039,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -42101,7 +42101,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -42163,7 +42163,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -42225,7 +42225,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -42287,7 +42287,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -42411,7 +42411,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -42473,7 +42473,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -42535,7 +42535,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -42597,7 +42597,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -42659,7 +42659,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -42721,7 +42721,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -42783,7 +42783,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -42969,7 +42969,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -43031,7 +43031,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -43279,7 +43279,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -43403,7 +43403,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -43465,7 +43465,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -43589,7 +43589,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -43713,7 +43713,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -43775,7 +43775,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -43899,7 +43899,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -44023,7 +44023,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -44085,7 +44085,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -44147,7 +44147,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -44209,7 +44209,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -44271,7 +44271,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -44333,7 +44333,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -44395,7 +44395,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -44457,7 +44457,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -44519,7 +44519,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -44581,7 +44581,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -44643,7 +44643,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -44767,7 +44767,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -44829,7 +44829,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -44891,7 +44891,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -44953,7 +44953,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -45015,7 +45015,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -45077,7 +45077,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -45139,7 +45139,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -45263,7 +45263,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -45325,7 +45325,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -45387,7 +45387,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -45449,7 +45449,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -45511,7 +45511,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -45573,7 +45573,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -45635,7 +45635,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -45759,7 +45759,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -45821,7 +45821,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -45945,7 +45945,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -46069,7 +46069,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -46131,7 +46131,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -46193,7 +46193,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -46255,7 +46255,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -46379,7 +46379,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -46441,7 +46441,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -46503,7 +46503,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -46627,7 +46627,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -46689,7 +46689,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -46751,7 +46751,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -46813,7 +46813,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -46875,7 +46875,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -46937,7 +46937,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -46999,7 +46999,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -47061,7 +47061,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -47123,7 +47123,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -47185,7 +47185,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -47247,7 +47247,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -47371,7 +47371,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -47433,7 +47433,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -47619,7 +47619,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -47681,7 +47681,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -47743,7 +47743,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -47929,7 +47929,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -47991,7 +47991,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -48115,7 +48115,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -48301,7 +48301,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -48363,7 +48363,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -48425,7 +48425,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -48487,7 +48487,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C131">
         <v>2</v>
@@ -48673,7 +48673,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -48735,7 +48735,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C135">
         <v>6</v>
@@ -48797,7 +48797,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -48859,7 +48859,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C137">
         <v>2</v>
@@ -48921,7 +48921,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -49045,7 +49045,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C140">
         <v>3</v>
@@ -49169,7 +49169,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -49231,7 +49231,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C143">
         <v>2</v>
@@ -49293,7 +49293,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -49355,7 +49355,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -49727,7 +49727,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -49789,7 +49789,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -49913,7 +49913,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -49975,7 +49975,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -50103,7 +50103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7266FE60-FB1B-4DF0-A32D-B90E7126FDFD}">
   <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -50114,61 +50114,61 @@
         <v>669</v>
       </c>
       <c r="B1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" t="s">
         <v>675</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>676</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>677</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>678</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>679</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>680</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>681</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>682</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>683</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>684</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>685</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>686</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>687</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>688</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>689</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>690</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>691</v>
-      </c>
-      <c r="T1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -50176,7 +50176,7 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -50238,7 +50238,7 @@
         <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -50300,7 +50300,7 @@
         <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -50362,7 +50362,7 @@
         <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -50486,7 +50486,7 @@
         <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -50548,7 +50548,7 @@
         <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -50610,7 +50610,7 @@
         <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -50672,7 +50672,7 @@
         <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -50734,7 +50734,7 @@
         <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -50796,7 +50796,7 @@
         <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -50858,7 +50858,7 @@
         <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -50920,7 +50920,7 @@
         <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -51106,7 +51106,7 @@
         <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -51168,7 +51168,7 @@
         <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -51230,7 +51230,7 @@
         <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -51292,7 +51292,7 @@
         <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -51354,7 +51354,7 @@
         <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -51416,7 +51416,7 @@
         <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -51540,7 +51540,7 @@
         <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -51602,7 +51602,7 @@
         <v>179</v>
       </c>
       <c r="B25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -51664,7 +51664,7 @@
         <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -51726,7 +51726,7 @@
         <v>181</v>
       </c>
       <c r="B27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -51788,7 +51788,7 @@
         <v>182</v>
       </c>
       <c r="B28" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -51850,7 +51850,7 @@
         <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -51912,7 +51912,7 @@
         <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -51974,7 +51974,7 @@
         <v>185</v>
       </c>
       <c r="B31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -52036,7 +52036,7 @@
         <v>186</v>
       </c>
       <c r="B32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -52098,7 +52098,7 @@
         <v>187</v>
       </c>
       <c r="B33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -52160,7 +52160,7 @@
         <v>188</v>
       </c>
       <c r="B34" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -52222,7 +52222,7 @@
         <v>189</v>
       </c>
       <c r="B35" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -52284,7 +52284,7 @@
         <v>190</v>
       </c>
       <c r="B36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -52532,7 +52532,7 @@
         <v>194</v>
       </c>
       <c r="B40" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -52594,7 +52594,7 @@
         <v>195</v>
       </c>
       <c r="B41" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -52656,7 +52656,7 @@
         <v>196</v>
       </c>
       <c r="B42" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -52718,7 +52718,7 @@
         <v>197</v>
       </c>
       <c r="B43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -52780,7 +52780,7 @@
         <v>198</v>
       </c>
       <c r="B44" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -52966,7 +52966,7 @@
         <v>201</v>
       </c>
       <c r="B47" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -53028,7 +53028,7 @@
         <v>202</v>
       </c>
       <c r="B48" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -53090,7 +53090,7 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -53152,7 +53152,7 @@
         <v>204</v>
       </c>
       <c r="B50" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -53214,7 +53214,7 @@
         <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -53276,7 +53276,7 @@
         <v>206</v>
       </c>
       <c r="B52" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -53338,7 +53338,7 @@
         <v>207</v>
       </c>
       <c r="B53" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -53400,7 +53400,7 @@
         <v>208</v>
       </c>
       <c r="B54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C54">
         <v>9</v>
@@ -53462,7 +53462,7 @@
         <v>209</v>
       </c>
       <c r="B55" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -53524,7 +53524,7 @@
         <v>210</v>
       </c>
       <c r="B56" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -53586,7 +53586,7 @@
         <v>211</v>
       </c>
       <c r="B57" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -53648,7 +53648,7 @@
         <v>212</v>
       </c>
       <c r="B58" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -53710,7 +53710,7 @@
         <v>213</v>
       </c>
       <c r="B59" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -53772,7 +53772,7 @@
         <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -53834,7 +53834,7 @@
         <v>215</v>
       </c>
       <c r="B61" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -53896,7 +53896,7 @@
         <v>216</v>
       </c>
       <c r="B62" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -54020,7 +54020,7 @@
         <v>218</v>
       </c>
       <c r="B64" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -54206,7 +54206,7 @@
         <v>221</v>
       </c>
       <c r="B67" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -54330,7 +54330,7 @@
         <v>223</v>
       </c>
       <c r="B69" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -54392,7 +54392,7 @@
         <v>224</v>
       </c>
       <c r="B70" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -54454,7 +54454,7 @@
         <v>225</v>
       </c>
       <c r="B71" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -54516,7 +54516,7 @@
         <v>226</v>
       </c>
       <c r="B72" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -54578,7 +54578,7 @@
         <v>227</v>
       </c>
       <c r="B73" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -54640,7 +54640,7 @@
         <v>228</v>
       </c>
       <c r="B74" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -54764,7 +54764,7 @@
         <v>230</v>
       </c>
       <c r="B76" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -54888,7 +54888,7 @@
         <v>232</v>
       </c>
       <c r="B78" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -54950,7 +54950,7 @@
         <v>233</v>
       </c>
       <c r="B79" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -55012,7 +55012,7 @@
         <v>234</v>
       </c>
       <c r="B80" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -55074,7 +55074,7 @@
         <v>235</v>
       </c>
       <c r="B81" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -55198,7 +55198,7 @@
         <v>237</v>
       </c>
       <c r="B83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -55260,7 +55260,7 @@
         <v>238</v>
       </c>
       <c r="B84" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -55446,7 +55446,7 @@
         <v>241</v>
       </c>
       <c r="B87" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -55508,7 +55508,7 @@
         <v>242</v>
       </c>
       <c r="B88" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -55570,7 +55570,7 @@
         <v>243</v>
       </c>
       <c r="B89" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -55632,7 +55632,7 @@
         <v>244</v>
       </c>
       <c r="B90" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -55694,7 +55694,7 @@
         <v>245</v>
       </c>
       <c r="B91" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -55756,7 +55756,7 @@
         <v>246</v>
       </c>
       <c r="B92" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -55818,7 +55818,7 @@
         <v>247</v>
       </c>
       <c r="B93" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -55880,7 +55880,7 @@
         <v>248</v>
       </c>
       <c r="B94" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -55942,7 +55942,7 @@
         <v>249</v>
       </c>
       <c r="B95" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -56004,7 +56004,7 @@
         <v>250</v>
       </c>
       <c r="B96" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -56066,7 +56066,7 @@
         <v>251</v>
       </c>
       <c r="B97" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -56252,7 +56252,7 @@
         <v>254</v>
       </c>
       <c r="B100" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -56314,7 +56314,7 @@
         <v>255</v>
       </c>
       <c r="B101" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -56438,7 +56438,7 @@
         <v>257</v>
       </c>
       <c r="B103" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -56500,7 +56500,7 @@
         <v>258</v>
       </c>
       <c r="B104" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -56562,7 +56562,7 @@
         <v>259</v>
       </c>
       <c r="B105" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -56686,7 +56686,7 @@
         <v>261</v>
       </c>
       <c r="B107" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -56810,7 +56810,7 @@
         <v>263</v>
       </c>
       <c r="B109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -56872,7 +56872,7 @@
         <v>264</v>
       </c>
       <c r="B110" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -56934,7 +56934,7 @@
         <v>265</v>
       </c>
       <c r="B111" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -57058,7 +57058,7 @@
         <v>267</v>
       </c>
       <c r="B113" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -57182,7 +57182,7 @@
         <v>269</v>
       </c>
       <c r="B115" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -57306,7 +57306,7 @@
         <v>271</v>
       </c>
       <c r="B117" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -57368,7 +57368,7 @@
         <v>272</v>
       </c>
       <c r="B118" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -57430,7 +57430,7 @@
         <v>273</v>
       </c>
       <c r="B119" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C119">
         <v>4</v>
@@ -57492,7 +57492,7 @@
         <v>274</v>
       </c>
       <c r="B120" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -57554,7 +57554,7 @@
         <v>275</v>
       </c>
       <c r="B121" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -57616,7 +57616,7 @@
         <v>276</v>
       </c>
       <c r="B122" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -57802,7 +57802,7 @@
         <v>279</v>
       </c>
       <c r="B125" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -57864,7 +57864,7 @@
         <v>280</v>
       </c>
       <c r="B126" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -57926,7 +57926,7 @@
         <v>281</v>
       </c>
       <c r="B127" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -57988,7 +57988,7 @@
         <v>282</v>
       </c>
       <c r="B128" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -58050,7 +58050,7 @@
         <v>283</v>
       </c>
       <c r="B129" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -58112,7 +58112,7 @@
         <v>284</v>
       </c>
       <c r="B130" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C130">
         <v>2</v>
@@ -58174,7 +58174,7 @@
         <v>285</v>
       </c>
       <c r="B131" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -58236,7 +58236,7 @@
         <v>286</v>
       </c>
       <c r="B132" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -58298,7 +58298,7 @@
         <v>287</v>
       </c>
       <c r="B133" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -58360,7 +58360,7 @@
         <v>288</v>
       </c>
       <c r="B134" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -58484,7 +58484,7 @@
         <v>290</v>
       </c>
       <c r="B136" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -58546,7 +58546,7 @@
         <v>291</v>
       </c>
       <c r="B137" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C137">
         <v>2</v>
@@ -58608,7 +58608,7 @@
         <v>292</v>
       </c>
       <c r="B138" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C138">
         <v>2</v>
@@ -58670,7 +58670,7 @@
         <v>293</v>
       </c>
       <c r="B139" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -58732,7 +58732,7 @@
         <v>294</v>
       </c>
       <c r="B140" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -58794,7 +58794,7 @@
         <v>295</v>
       </c>
       <c r="B141" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C141">
         <v>3</v>
@@ -58918,7 +58918,7 @@
         <v>297</v>
       </c>
       <c r="B143" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -58980,7 +58980,7 @@
         <v>298</v>
       </c>
       <c r="B144" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -59104,7 +59104,7 @@
         <v>300</v>
       </c>
       <c r="B146" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C146">
         <v>2</v>
@@ -59166,7 +59166,7 @@
         <v>301</v>
       </c>
       <c r="B147" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -59228,7 +59228,7 @@
         <v>302</v>
       </c>
       <c r="B148" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -59290,7 +59290,7 @@
         <v>303</v>
       </c>
       <c r="B149" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C149">
         <v>2</v>
@@ -59352,7 +59352,7 @@
         <v>304</v>
       </c>
       <c r="B150" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -59414,7 +59414,7 @@
         <v>305</v>
       </c>
       <c r="B151" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -59476,7 +59476,7 @@
         <v>306</v>
       </c>
       <c r="B152" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C152">
         <v>3</v>
@@ -59538,7 +59538,7 @@
         <v>307</v>
       </c>
       <c r="B153" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -59600,7 +59600,7 @@
         <v>308</v>
       </c>
       <c r="B154" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -59662,7 +59662,7 @@
         <v>309</v>
       </c>
       <c r="B155" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C155">
         <v>3</v>
@@ -59848,7 +59848,7 @@
         <v>312</v>
       </c>
       <c r="B158" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C158">
         <v>3</v>
@@ -59910,7 +59910,7 @@
         <v>313</v>
       </c>
       <c r="B159" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -60034,7 +60034,7 @@
         <v>315</v>
       </c>
       <c r="B161" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C161">
         <v>3</v>
@@ -60220,7 +60220,7 @@
         <v>318</v>
       </c>
       <c r="B164" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C164">
         <v>2</v>
@@ -60282,7 +60282,7 @@
         <v>319</v>
       </c>
       <c r="B165" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -60344,7 +60344,7 @@
         <v>320</v>
       </c>
       <c r="B166" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C166">
         <v>3</v>
@@ -60406,7 +60406,7 @@
         <v>321</v>
       </c>
       <c r="B167" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -60530,7 +60530,7 @@
         <v>323</v>
       </c>
       <c r="B169" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -60592,7 +60592,7 @@
         <v>324</v>
       </c>
       <c r="B170" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -60654,7 +60654,7 @@
         <v>325</v>
       </c>
       <c r="B171" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -60840,7 +60840,7 @@
         <v>328</v>
       </c>
       <c r="B174" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C174">
         <v>2</v>
@@ -60964,7 +60964,7 @@
         <v>330</v>
       </c>
       <c r="B176" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -61026,7 +61026,7 @@
         <v>331</v>
       </c>
       <c r="B177" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -61088,7 +61088,7 @@
         <v>332</v>
       </c>
       <c r="B178" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C178">
         <v>2</v>
@@ -61150,7 +61150,7 @@
         <v>333</v>
       </c>
       <c r="B179" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -61212,7 +61212,7 @@
         <v>334</v>
       </c>
       <c r="B180" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -61274,7 +61274,7 @@
         <v>335</v>
       </c>
       <c r="B181" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C181">
         <v>4</v>
@@ -61398,7 +61398,7 @@
         <v>337</v>
       </c>
       <c r="B183" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -61460,7 +61460,7 @@
         <v>338</v>
       </c>
       <c r="B184" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C184">
         <v>2</v>
@@ -61522,7 +61522,7 @@
         <v>339</v>
       </c>
       <c r="B185" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C185">
         <v>3</v>
@@ -61584,7 +61584,7 @@
         <v>340</v>
       </c>
       <c r="B186" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -61646,7 +61646,7 @@
         <v>341</v>
       </c>
       <c r="B187" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -61708,7 +61708,7 @@
         <v>342</v>
       </c>
       <c r="B188" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C188">
         <v>2</v>
@@ -61770,7 +61770,7 @@
         <v>343</v>
       </c>
       <c r="B189" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C189">
         <v>2</v>
@@ -61832,7 +61832,7 @@
         <v>344</v>
       </c>
       <c r="B190" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -61894,7 +61894,7 @@
         <v>345</v>
       </c>
       <c r="B191" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -61956,7 +61956,7 @@
         <v>346</v>
       </c>
       <c r="B192" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C192">
         <v>3</v>
@@ -62018,7 +62018,7 @@
         <v>347</v>
       </c>
       <c r="B193" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -62080,7 +62080,7 @@
         <v>348</v>
       </c>
       <c r="B194" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -62142,7 +62142,7 @@
         <v>349</v>
       </c>
       <c r="B195" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C195">
         <v>3</v>
@@ -62204,7 +62204,7 @@
         <v>350</v>
       </c>
       <c r="B196" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -62328,7 +62328,7 @@
         <v>352</v>
       </c>
       <c r="B198" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C198">
         <v>2</v>
@@ -62390,7 +62390,7 @@
         <v>353</v>
       </c>
       <c r="B199" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C199">
         <v>3</v>
@@ -62452,7 +62452,7 @@
         <v>354</v>
       </c>
       <c r="B200" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -62514,7 +62514,7 @@
         <v>355</v>
       </c>
       <c r="B201" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C201">
         <v>3</v>
@@ -62638,7 +62638,7 @@
         <v>357</v>
       </c>
       <c r="B203" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C203">
         <v>3</v>
@@ -62700,7 +62700,7 @@
         <v>358</v>
       </c>
       <c r="B204" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C204">
         <v>2</v>
@@ -62762,7 +62762,7 @@
         <v>359</v>
       </c>
       <c r="B205" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -62824,7 +62824,7 @@
         <v>360</v>
       </c>
       <c r="B206" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -62948,7 +62948,7 @@
         <v>362</v>
       </c>
       <c r="B208" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -63010,7 +63010,7 @@
         <v>363</v>
       </c>
       <c r="B209" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C209">
         <v>3</v>
@@ -63072,7 +63072,7 @@
         <v>364</v>
       </c>
       <c r="B210" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C210">
         <v>2</v>
@@ -63134,7 +63134,7 @@
         <v>365</v>
       </c>
       <c r="B211" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -63196,7 +63196,7 @@
         <v>366</v>
       </c>
       <c r="B212" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -63258,7 +63258,7 @@
         <v>367</v>
       </c>
       <c r="B213" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -63320,7 +63320,7 @@
         <v>368</v>
       </c>
       <c r="B214" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -63382,7 +63382,7 @@
         <v>369</v>
       </c>
       <c r="B215" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -63444,7 +63444,7 @@
         <v>370</v>
       </c>
       <c r="B216" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -63506,7 +63506,7 @@
         <v>371</v>
       </c>
       <c r="B217" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C217">
         <v>2</v>
@@ -63568,7 +63568,7 @@
         <v>372</v>
       </c>
       <c r="B218" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C218">
         <v>2</v>
@@ -63630,7 +63630,7 @@
         <v>373</v>
       </c>
       <c r="B219" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -63692,7 +63692,7 @@
         <v>374</v>
       </c>
       <c r="B220" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C220">
         <v>3</v>
@@ -63754,7 +63754,7 @@
         <v>375</v>
       </c>
       <c r="B221" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C221">
         <v>2</v>
@@ -63816,7 +63816,7 @@
         <v>376</v>
       </c>
       <c r="B222" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C222">
         <v>2</v>
@@ -63878,7 +63878,7 @@
         <v>377</v>
       </c>
       <c r="B223" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C223">
         <v>5</v>
@@ -63940,7 +63940,7 @@
         <v>378</v>
       </c>
       <c r="B224" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -64002,7 +64002,7 @@
         <v>379</v>
       </c>
       <c r="B225" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C225">
         <v>3</v>
@@ -64064,7 +64064,7 @@
         <v>380</v>
       </c>
       <c r="B226" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -64138,27 +64138,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" t="s">
         <v>695</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>696</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>697</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>698</v>
-      </c>
-      <c r="E1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B2" t="s">
         <v>700</v>
-      </c>
-      <c r="B2" t="s">
-        <v>701</v>
       </c>
       <c r="D2">
         <v>33.939109999999999</v>
@@ -64169,10 +64169,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B3" t="s">
         <v>702</v>
-      </c>
-      <c r="B3" t="s">
-        <v>703</v>
       </c>
       <c r="D3">
         <v>18.220554</v>
@@ -64183,10 +64183,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B4" t="s">
         <v>704</v>
-      </c>
-      <c r="B4" t="s">
-        <v>705</v>
       </c>
       <c r="D4">
         <v>41.153331999999999</v>
@@ -64200,7 +64200,7 @@
         <v>564</v>
       </c>
       <c r="B5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D5">
         <v>28.033885999999999</v>
@@ -64211,10 +64211,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B6" t="s">
         <v>707</v>
-      </c>
-      <c r="B6" t="s">
-        <v>708</v>
       </c>
       <c r="D6">
         <v>42.546244999999999</v>
@@ -64225,10 +64225,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B7" t="s">
         <v>709</v>
-      </c>
-      <c r="B7" t="s">
-        <v>710</v>
       </c>
       <c r="D7">
         <v>-11.202692000000001</v>
@@ -64242,7 +64242,7 @@
         <v>560</v>
       </c>
       <c r="B8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D8">
         <v>-38.416097000000001</v>
@@ -64253,10 +64253,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>711</v>
+      </c>
+      <c r="B9" t="s">
         <v>712</v>
-      </c>
-      <c r="B9" t="s">
-        <v>713</v>
       </c>
       <c r="D9">
         <v>40.069099000000001</v>
@@ -64267,10 +64267,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B10" t="s">
         <v>714</v>
-      </c>
-      <c r="B10" t="s">
-        <v>715</v>
       </c>
       <c r="D10">
         <v>12.52111</v>
@@ -64281,10 +64281,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B11" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D11">
         <v>-25.274398000000001</v>
@@ -64295,10 +64295,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>716</v>
+      </c>
+      <c r="B12" t="s">
         <v>717</v>
-      </c>
-      <c r="B12" t="s">
-        <v>718</v>
       </c>
       <c r="D12">
         <v>-14.270972</v>
@@ -64309,10 +64309,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>718</v>
+      </c>
+      <c r="B13" t="s">
         <v>719</v>
-      </c>
-      <c r="B13" t="s">
-        <v>720</v>
       </c>
       <c r="D13">
         <v>17.060815999999999</v>
@@ -64326,7 +64326,7 @@
         <v>589</v>
       </c>
       <c r="B14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D14">
         <v>47.516230999999998</v>
@@ -64337,10 +64337,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>721</v>
+      </c>
+      <c r="B15" t="s">
         <v>722</v>
-      </c>
-      <c r="B15" t="s">
-        <v>723</v>
       </c>
       <c r="D15">
         <v>40.143104999999998</v>
@@ -64351,10 +64351,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>723</v>
+      </c>
+      <c r="B16" t="s">
         <v>724</v>
-      </c>
-      <c r="B16" t="s">
-        <v>725</v>
       </c>
       <c r="D16">
         <v>25.034279999999999</v>
@@ -64365,10 +64365,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>725</v>
+      </c>
+      <c r="B17" t="s">
         <v>726</v>
-      </c>
-      <c r="B17" t="s">
-        <v>727</v>
       </c>
       <c r="D17">
         <v>23.684994</v>
@@ -64379,10 +64379,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>727</v>
+      </c>
+      <c r="B18" t="s">
         <v>728</v>
-      </c>
-      <c r="B18" t="s">
-        <v>729</v>
       </c>
       <c r="D18">
         <v>-3.3730560000000001</v>
@@ -64396,7 +64396,7 @@
         <v>563</v>
       </c>
       <c r="B19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D19">
         <v>50.503886999999999</v>
@@ -64407,10 +64407,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>730</v>
+      </c>
+      <c r="B20" t="s">
         <v>731</v>
-      </c>
-      <c r="B20" t="s">
-        <v>732</v>
       </c>
       <c r="D20">
         <v>9.3076899999999991</v>
@@ -64421,10 +64421,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>732</v>
+      </c>
+      <c r="B21" t="s">
         <v>733</v>
-      </c>
-      <c r="B21" t="s">
-        <v>734</v>
       </c>
       <c r="D21">
         <v>32.321384000000002</v>
@@ -64438,7 +64438,7 @@
         <v>610</v>
       </c>
       <c r="B22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D22">
         <v>12.238333000000001</v>
@@ -64449,10 +64449,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>735</v>
+      </c>
+      <c r="B23" t="s">
         <v>736</v>
-      </c>
-      <c r="B23" t="s">
-        <v>737</v>
       </c>
       <c r="D23">
         <v>25.930413999999999</v>
@@ -64463,10 +64463,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>737</v>
+      </c>
+      <c r="B24" t="s">
         <v>738</v>
-      </c>
-      <c r="B24" t="s">
-        <v>739</v>
       </c>
       <c r="D24">
         <v>27.514161999999999</v>
@@ -64480,7 +64480,7 @@
         <v>604</v>
       </c>
       <c r="B25" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D25">
         <v>43.915886</v>
@@ -64491,10 +64491,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>740</v>
+      </c>
+      <c r="B26" t="s">
         <v>741</v>
-      </c>
-      <c r="B26" t="s">
-        <v>742</v>
       </c>
       <c r="D26">
         <v>53.709806999999998</v>
@@ -64505,10 +64505,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>742</v>
+      </c>
+      <c r="B27" t="s">
         <v>743</v>
-      </c>
-      <c r="B27" t="s">
-        <v>744</v>
       </c>
       <c r="D27">
         <v>17.189876999999999</v>
@@ -64519,10 +64519,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>744</v>
+      </c>
+      <c r="B28" t="s">
         <v>745</v>
-      </c>
-      <c r="B28" t="s">
-        <v>746</v>
       </c>
       <c r="D28">
         <v>12.144299999999999</v>
@@ -64533,10 +64533,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>746</v>
+      </c>
+      <c r="B29" t="s">
         <v>747</v>
-      </c>
-      <c r="B29" t="s">
-        <v>748</v>
       </c>
       <c r="D29">
         <v>-16.290154000000001</v>
@@ -64547,10 +64547,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>748</v>
+      </c>
+      <c r="B30" t="s">
         <v>749</v>
-      </c>
-      <c r="B30" t="s">
-        <v>750</v>
       </c>
       <c r="D30">
         <v>-22.328474</v>
@@ -64564,7 +64564,7 @@
         <v>552</v>
       </c>
       <c r="B31" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D31">
         <v>-14.235004</v>
@@ -64575,10 +64575,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>751</v>
+      </c>
+      <c r="B32" t="s">
         <v>752</v>
-      </c>
-      <c r="B32" t="s">
-        <v>753</v>
       </c>
       <c r="D32">
         <v>13.193887</v>
@@ -64589,10 +64589,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>753</v>
+      </c>
+      <c r="B33" t="s">
         <v>754</v>
-      </c>
-      <c r="B33" t="s">
-        <v>755</v>
       </c>
       <c r="D33">
         <v>4.5352769999999998</v>
@@ -64603,10 +64603,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>755</v>
+      </c>
+      <c r="B34" t="s">
         <v>756</v>
-      </c>
-      <c r="B34" t="s">
-        <v>757</v>
       </c>
       <c r="D34">
         <v>42.733882999999999</v>
@@ -64617,10 +64617,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>757</v>
+      </c>
+      <c r="B35" t="s">
         <v>758</v>
-      </c>
-      <c r="B35" t="s">
-        <v>759</v>
       </c>
       <c r="D35">
         <v>12.565678999999999</v>
@@ -64634,7 +64634,7 @@
         <v>616</v>
       </c>
       <c r="B36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D36">
         <v>56.130366000000002</v>
@@ -64645,10 +64645,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>760</v>
+      </c>
+      <c r="B37" t="s">
         <v>761</v>
-      </c>
-      <c r="B37" t="s">
-        <v>762</v>
       </c>
       <c r="D37">
         <v>19.513469000000001</v>
@@ -64659,10 +64659,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>762</v>
+      </c>
+      <c r="B38" t="s">
         <v>763</v>
-      </c>
-      <c r="B38" t="s">
-        <v>764</v>
       </c>
       <c r="D38">
         <v>-4.0383329999999997</v>
@@ -64673,10 +64673,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>764</v>
+      </c>
+      <c r="B39" t="s">
         <v>765</v>
-      </c>
-      <c r="B39" t="s">
-        <v>766</v>
       </c>
       <c r="D39">
         <v>15.454166000000001</v>
@@ -64687,10 +64687,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>766</v>
+      </c>
+      <c r="B40" t="s">
         <v>767</v>
-      </c>
-      <c r="B40" t="s">
-        <v>768</v>
       </c>
       <c r="D40">
         <v>-35.675147000000003</v>
@@ -64701,10 +64701,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>768</v>
+      </c>
+      <c r="B41" t="s">
         <v>769</v>
-      </c>
-      <c r="B41" t="s">
-        <v>770</v>
       </c>
       <c r="D41">
         <v>35.861660000000001</v>
@@ -64718,7 +64718,7 @@
         <v>572</v>
       </c>
       <c r="B42" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D42">
         <v>7.5399890000000003</v>
@@ -64732,7 +64732,7 @@
         <v>579</v>
       </c>
       <c r="B43" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D43">
         <v>7.3697220000000003</v>
@@ -64746,7 +64746,7 @@
         <v>596</v>
       </c>
       <c r="B44" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D44">
         <v>-0.228021</v>
@@ -64757,10 +64757,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>773</v>
+      </c>
+      <c r="B45" t="s">
         <v>774</v>
-      </c>
-      <c r="B45" t="s">
-        <v>775</v>
       </c>
       <c r="D45">
         <v>-21.236736000000001</v>
@@ -64774,7 +64774,7 @@
         <v>599</v>
       </c>
       <c r="B46" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D46">
         <v>4.5708679999999999</v>
@@ -64785,10 +64785,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>776</v>
+      </c>
+      <c r="B47" t="s">
         <v>777</v>
-      </c>
-      <c r="B47" t="s">
-        <v>778</v>
       </c>
       <c r="D47">
         <v>-11.875000999999999</v>
@@ -64799,10 +64799,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>778</v>
+      </c>
+      <c r="B48" t="s">
         <v>779</v>
-      </c>
-      <c r="B48" t="s">
-        <v>780</v>
       </c>
       <c r="D48">
         <v>16.002082000000001</v>
@@ -64813,10 +64813,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>780</v>
+      </c>
+      <c r="B49" t="s">
         <v>781</v>
-      </c>
-      <c r="B49" t="s">
-        <v>782</v>
       </c>
       <c r="D49">
         <v>9.7489170000000005</v>
@@ -64830,7 +64830,7 @@
         <v>553</v>
       </c>
       <c r="B50" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D50">
         <v>45.1</v>
@@ -64841,10 +64841,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>783</v>
+      </c>
+      <c r="B51" t="s">
         <v>784</v>
-      </c>
-      <c r="B51" t="s">
-        <v>785</v>
       </c>
       <c r="D51">
         <v>6.6111110000000002</v>
@@ -64855,10 +64855,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>785</v>
+      </c>
+      <c r="B52" t="s">
         <v>786</v>
-      </c>
-      <c r="B52" t="s">
-        <v>787</v>
       </c>
       <c r="D52">
         <v>21.521757000000001</v>
@@ -64869,10 +64869,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>787</v>
+      </c>
+      <c r="B53" t="s">
         <v>788</v>
-      </c>
-      <c r="B53" t="s">
-        <v>789</v>
       </c>
       <c r="D53">
         <v>12.169600000000001</v>
@@ -64883,10 +64883,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>789</v>
+      </c>
+      <c r="B54" t="s">
         <v>790</v>
-      </c>
-      <c r="B54" t="s">
-        <v>791</v>
       </c>
       <c r="D54">
         <v>35.126412999999999</v>
@@ -64900,7 +64900,7 @@
         <v>592</v>
       </c>
       <c r="B55" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D55">
         <v>49.817492000000001</v>
@@ -64914,7 +64914,7 @@
         <v>556</v>
       </c>
       <c r="B56" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D56">
         <v>56.263919999999999</v>
@@ -64925,10 +64925,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>793</v>
+      </c>
+      <c r="B57" t="s">
         <v>794</v>
-      </c>
-      <c r="B57" t="s">
-        <v>795</v>
       </c>
       <c r="D57">
         <v>11.825138000000001</v>
@@ -64939,10 +64939,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>795</v>
+      </c>
+      <c r="B58" t="s">
         <v>796</v>
-      </c>
-      <c r="B58" t="s">
-        <v>797</v>
       </c>
       <c r="D58">
         <v>15.414999</v>
@@ -64953,10 +64953,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>797</v>
+      </c>
+      <c r="B59" t="s">
         <v>798</v>
-      </c>
-      <c r="B59" t="s">
-        <v>799</v>
       </c>
       <c r="D59">
         <v>18.735693000000001</v>
@@ -64967,10 +64967,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>799</v>
+      </c>
+      <c r="B60" t="s">
         <v>800</v>
-      </c>
-      <c r="B60" t="s">
-        <v>801</v>
       </c>
       <c r="D60">
         <v>-1.8312390000000001</v>
@@ -64984,7 +64984,7 @@
         <v>575</v>
       </c>
       <c r="B61" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D61">
         <v>26.820553</v>
@@ -64998,10 +64998,10 @@
         <v>540</v>
       </c>
       <c r="B62" t="s">
+        <v>802</v>
+      </c>
+      <c r="C62" t="s">
         <v>803</v>
-      </c>
-      <c r="C62" t="s">
-        <v>804</v>
       </c>
       <c r="D62">
         <v>52.355499999999999</v>
@@ -65012,10 +65012,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>804</v>
+      </c>
+      <c r="B63" t="s">
         <v>805</v>
-      </c>
-      <c r="B63" t="s">
-        <v>806</v>
       </c>
       <c r="D63">
         <v>1.650801</v>
@@ -65026,10 +65026,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>806</v>
+      </c>
+      <c r="B64" t="s">
         <v>807</v>
-      </c>
-      <c r="B64" t="s">
-        <v>808</v>
       </c>
       <c r="D64">
         <v>15.179384000000001</v>
@@ -65043,7 +65043,7 @@
         <v>548</v>
       </c>
       <c r="B65" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D65">
         <v>7.8730539999999998</v>
@@ -65054,10 +65054,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>809</v>
+      </c>
+      <c r="B66" t="s">
         <v>810</v>
-      </c>
-      <c r="B66" t="s">
-        <v>811</v>
       </c>
       <c r="D66">
         <v>58.595272000000001</v>
@@ -65068,10 +65068,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>811</v>
+      </c>
+      <c r="B67" t="s">
         <v>812</v>
-      </c>
-      <c r="B67" t="s">
-        <v>813</v>
       </c>
       <c r="D67">
         <v>9.1449999999999996</v>
@@ -65082,10 +65082,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>813</v>
+      </c>
+      <c r="B68" t="s">
         <v>814</v>
-      </c>
-      <c r="B68" t="s">
-        <v>815</v>
       </c>
       <c r="D68">
         <v>-16.578192999999999</v>
@@ -65096,10 +65096,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>815</v>
+      </c>
+      <c r="B69" t="s">
         <v>816</v>
-      </c>
-      <c r="B69" t="s">
-        <v>817</v>
       </c>
       <c r="D69">
         <v>61.924109999999999</v>
@@ -65113,7 +65113,7 @@
         <v>549</v>
       </c>
       <c r="B70" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D70">
         <v>46.227637999999999</v>
@@ -65124,10 +65124,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>818</v>
+      </c>
+      <c r="B71" t="s">
         <v>819</v>
-      </c>
-      <c r="B71" t="s">
-        <v>820</v>
       </c>
       <c r="D71">
         <v>-51.796253</v>
@@ -65141,7 +65141,7 @@
         <v>601</v>
       </c>
       <c r="B72" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D72">
         <v>-0.80368899999999999</v>
@@ -65152,10 +65152,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>821</v>
+      </c>
+      <c r="B73" t="s">
         <v>822</v>
-      </c>
-      <c r="B73" t="s">
-        <v>823</v>
       </c>
       <c r="D73">
         <v>13.443182</v>
@@ -65166,10 +65166,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>823</v>
+      </c>
+      <c r="B74" t="s">
         <v>824</v>
-      </c>
-      <c r="B74" t="s">
-        <v>825</v>
       </c>
       <c r="D74">
         <v>42.315407</v>
@@ -65183,7 +65183,7 @@
         <v>545</v>
       </c>
       <c r="B75" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D75">
         <v>51.165691000000002</v>
@@ -65197,7 +65197,7 @@
         <v>588</v>
       </c>
       <c r="B76" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D76">
         <v>7.9465269999999997</v>
@@ -65208,10 +65208,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>827</v>
+      </c>
+      <c r="B77" t="s">
         <v>828</v>
-      </c>
-      <c r="B77" t="s">
-        <v>829</v>
       </c>
       <c r="D77">
         <v>36.137740999999998</v>
@@ -65222,10 +65222,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>829</v>
+      </c>
+      <c r="B78" t="s">
         <v>830</v>
-      </c>
-      <c r="B78" t="s">
-        <v>831</v>
       </c>
       <c r="D78">
         <v>11.803749</v>
@@ -65236,10 +65236,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>831</v>
+      </c>
+      <c r="B79" t="s">
         <v>832</v>
-      </c>
-      <c r="B79" t="s">
-        <v>833</v>
       </c>
       <c r="D79">
         <v>16.995971000000001</v>
@@ -65253,7 +65253,7 @@
         <v>584</v>
       </c>
       <c r="B80" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D80">
         <v>39.074207999999999</v>
@@ -65264,10 +65264,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>834</v>
+      </c>
+      <c r="B81" t="s">
         <v>835</v>
-      </c>
-      <c r="B81" t="s">
-        <v>836</v>
       </c>
       <c r="D81">
         <v>12.262776000000001</v>
@@ -65278,10 +65278,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>836</v>
+      </c>
+      <c r="B82" t="s">
         <v>837</v>
-      </c>
-      <c r="B82" t="s">
-        <v>838</v>
       </c>
       <c r="D82">
         <v>15.783471</v>
@@ -65295,7 +65295,7 @@
         <v>580</v>
       </c>
       <c r="B83" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D83">
         <v>9.9455869999999997</v>
@@ -65306,10 +65306,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>839</v>
+      </c>
+      <c r="B84" t="s">
         <v>840</v>
-      </c>
-      <c r="B84" t="s">
-        <v>841</v>
       </c>
       <c r="D84">
         <v>13.444304000000001</v>
@@ -65320,10 +65320,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>841</v>
+      </c>
+      <c r="B85" t="s">
         <v>842</v>
-      </c>
-      <c r="B85" t="s">
-        <v>843</v>
       </c>
       <c r="D85">
         <v>4.8604159999999998</v>
@@ -65334,10 +65334,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>843</v>
+      </c>
+      <c r="B86" t="s">
         <v>844</v>
-      </c>
-      <c r="B86" t="s">
-        <v>845</v>
       </c>
       <c r="D86">
         <v>3.9338890000000002</v>
@@ -65348,10 +65348,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>845</v>
+      </c>
+      <c r="B87" t="s">
         <v>846</v>
-      </c>
-      <c r="B87" t="s">
-        <v>847</v>
       </c>
       <c r="D87">
         <v>18.971187</v>
@@ -65362,10 +65362,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>847</v>
+      </c>
+      <c r="B88" t="s">
         <v>848</v>
-      </c>
-      <c r="B88" t="s">
-        <v>849</v>
       </c>
       <c r="D88">
         <v>22.396428</v>
@@ -65376,10 +65376,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>849</v>
+      </c>
+      <c r="B89" t="s">
         <v>850</v>
-      </c>
-      <c r="B89" t="s">
-        <v>851</v>
       </c>
       <c r="D89">
         <v>15.199999</v>
@@ -65390,10 +65390,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>851</v>
+      </c>
+      <c r="B90" t="s">
         <v>852</v>
-      </c>
-      <c r="B90" t="s">
-        <v>853</v>
       </c>
       <c r="D90">
         <v>47.162494000000002</v>
@@ -65404,10 +65404,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>853</v>
+      </c>
+      <c r="B91" t="s">
         <v>854</v>
-      </c>
-      <c r="B91" t="s">
-        <v>855</v>
       </c>
       <c r="D91">
         <v>-0.78927499999999995</v>
@@ -65418,10 +65418,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>855</v>
+      </c>
+      <c r="B92" t="s">
         <v>856</v>
-      </c>
-      <c r="B92" t="s">
-        <v>857</v>
       </c>
       <c r="D92">
         <v>20.593684</v>
@@ -65435,7 +65435,7 @@
         <v>583</v>
       </c>
       <c r="B93" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D93">
         <v>53.412909999999997</v>
@@ -65449,7 +65449,7 @@
         <v>621</v>
       </c>
       <c r="B94" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D94">
         <v>32.427908000000002</v>
@@ -65460,10 +65460,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>859</v>
+      </c>
+      <c r="B95" t="s">
         <v>860</v>
-      </c>
-      <c r="B95" t="s">
-        <v>861</v>
       </c>
       <c r="D95">
         <v>33.223191</v>
@@ -65477,7 +65477,7 @@
         <v>605</v>
       </c>
       <c r="B96" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D96">
         <v>64.963050999999993</v>
@@ -65488,10 +65488,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>862</v>
+      </c>
+      <c r="B97" t="s">
         <v>863</v>
-      </c>
-      <c r="B97" t="s">
-        <v>864</v>
       </c>
       <c r="D97">
         <v>31.046050999999999</v>
@@ -65505,7 +65505,7 @@
         <v>551</v>
       </c>
       <c r="B98" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D98">
         <v>41.871940000000002</v>
@@ -65519,7 +65519,7 @@
         <v>590</v>
       </c>
       <c r="B99" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D99">
         <v>18.109580999999999</v>
@@ -65530,10 +65530,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>866</v>
+      </c>
+      <c r="B100" t="s">
         <v>867</v>
-      </c>
-      <c r="B100" t="s">
-        <v>868</v>
       </c>
       <c r="D100">
         <v>30.585163999999999</v>
@@ -65547,7 +65547,7 @@
         <v>582</v>
       </c>
       <c r="B101" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D101">
         <v>36.204824000000002</v>
@@ -65558,10 +65558,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>869</v>
+      </c>
+      <c r="B102" t="s">
         <v>870</v>
-      </c>
-      <c r="B102" t="s">
-        <v>871</v>
       </c>
       <c r="D102">
         <v>48.019573000000001</v>
@@ -65572,10 +65572,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>871</v>
+      </c>
+      <c r="B103" t="s">
         <v>872</v>
-      </c>
-      <c r="B103" t="s">
-        <v>873</v>
       </c>
       <c r="D103">
         <v>-2.3559E-2</v>
@@ -65586,10 +65586,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>873</v>
+      </c>
+      <c r="B104" t="s">
         <v>874</v>
-      </c>
-      <c r="B104" t="s">
-        <v>875</v>
       </c>
       <c r="D104">
         <v>41.20438</v>
@@ -65600,10 +65600,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>875</v>
+      </c>
+      <c r="B105" t="s">
         <v>876</v>
-      </c>
-      <c r="B105" t="s">
-        <v>877</v>
       </c>
       <c r="D105">
         <v>-3.3704170000000002</v>
@@ -65617,7 +65617,7 @@
         <v>598</v>
       </c>
       <c r="B106" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D106">
         <v>35.907756999999997</v>
@@ -65628,10 +65628,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>878</v>
+      </c>
+      <c r="B107" t="s">
         <v>879</v>
-      </c>
-      <c r="B107" t="s">
-        <v>880</v>
       </c>
       <c r="D107">
         <v>23.885942</v>
@@ -65642,10 +65642,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>880</v>
+      </c>
+      <c r="B108" t="s">
         <v>881</v>
-      </c>
-      <c r="B108" t="s">
-        <v>882</v>
       </c>
       <c r="D108">
         <v>29.31166</v>
@@ -65656,10 +65656,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>882</v>
+      </c>
+      <c r="B109" t="s">
         <v>883</v>
-      </c>
-      <c r="B109" t="s">
-        <v>884</v>
       </c>
       <c r="D109">
         <v>19.856269999999999</v>
@@ -65670,10 +65670,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>884</v>
+      </c>
+      <c r="B110" t="s">
         <v>885</v>
-      </c>
-      <c r="B110" t="s">
-        <v>886</v>
       </c>
       <c r="D110">
         <v>6.4280549999999996</v>
@@ -65684,10 +65684,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>886</v>
+      </c>
+      <c r="B111" t="s">
         <v>887</v>
-      </c>
-      <c r="B111" t="s">
-        <v>888</v>
       </c>
       <c r="D111">
         <v>26.335100000000001</v>
@@ -65698,10 +65698,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>888</v>
+      </c>
+      <c r="B112" t="s">
         <v>889</v>
-      </c>
-      <c r="B112" t="s">
-        <v>890</v>
       </c>
       <c r="D112">
         <v>13.909444000000001</v>
@@ -65712,10 +65712,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>890</v>
+      </c>
+      <c r="B113" t="s">
         <v>891</v>
-      </c>
-      <c r="B113" t="s">
-        <v>892</v>
       </c>
       <c r="D113">
         <v>-29.609988000000001</v>
@@ -65726,10 +65726,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>892</v>
+      </c>
+      <c r="B114" t="s">
         <v>893</v>
-      </c>
-      <c r="B114" t="s">
-        <v>894</v>
       </c>
       <c r="D114">
         <v>33.854720999999998</v>
@@ -65740,10 +65740,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>894</v>
+      </c>
+      <c r="B115" t="s">
         <v>895</v>
-      </c>
-      <c r="B115" t="s">
-        <v>896</v>
       </c>
       <c r="D115">
         <v>47.165999999999997</v>
@@ -65754,10 +65754,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>896</v>
+      </c>
+      <c r="B116" t="s">
         <v>897</v>
-      </c>
-      <c r="B116" t="s">
-        <v>898</v>
       </c>
       <c r="D116">
         <v>55.169438</v>
@@ -65768,10 +65768,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>898</v>
+      </c>
+      <c r="B117" t="s">
         <v>899</v>
-      </c>
-      <c r="B117" t="s">
-        <v>900</v>
       </c>
       <c r="D117">
         <v>49.815272999999998</v>
@@ -65782,10 +65782,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>900</v>
+      </c>
+      <c r="B118" t="s">
         <v>901</v>
-      </c>
-      <c r="B118" t="s">
-        <v>902</v>
       </c>
       <c r="D118">
         <v>56.879635</v>
@@ -65796,10 +65796,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>902</v>
+      </c>
+      <c r="B119" t="s">
         <v>903</v>
-      </c>
-      <c r="B119" t="s">
-        <v>904</v>
       </c>
       <c r="D119">
         <v>22.198744999999999</v>
@@ -65810,10 +65810,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>904</v>
+      </c>
+      <c r="B120" t="s">
         <v>905</v>
-      </c>
-      <c r="B120" t="s">
-        <v>906</v>
       </c>
       <c r="D120">
         <v>-18.766946999999998</v>
@@ -65827,7 +65827,7 @@
         <v>557</v>
       </c>
       <c r="B121" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D121">
         <v>31.791702000000001</v>
@@ -65838,10 +65838,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>907</v>
+      </c>
+      <c r="B122" t="s">
         <v>908</v>
-      </c>
-      <c r="B122" t="s">
-        <v>909</v>
       </c>
       <c r="D122">
         <v>4.2104840000000001</v>
@@ -65852,10 +65852,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>909</v>
+      </c>
+      <c r="B123" t="s">
         <v>910</v>
-      </c>
-      <c r="B123" t="s">
-        <v>911</v>
       </c>
       <c r="D123">
         <v>47.411631</v>
@@ -65866,10 +65866,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>911</v>
+      </c>
+      <c r="B124" t="s">
         <v>912</v>
-      </c>
-      <c r="B124" t="s">
-        <v>913</v>
       </c>
       <c r="D124">
         <v>3.2027779999999999</v>
@@ -65883,7 +65883,7 @@
         <v>615</v>
       </c>
       <c r="B125" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D125">
         <v>23.634501</v>
@@ -65897,7 +65897,7 @@
         <v>607</v>
       </c>
       <c r="B126" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D126">
         <v>41.608635</v>
@@ -65911,7 +65911,7 @@
         <v>619</v>
       </c>
       <c r="B127" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D127">
         <v>17.570692000000001</v>
@@ -65922,10 +65922,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>916</v>
+      </c>
+      <c r="B128" t="s">
         <v>917</v>
-      </c>
-      <c r="B128" t="s">
-        <v>918</v>
       </c>
       <c r="D128">
         <v>35.937496000000003</v>
@@ -65936,10 +65936,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>918</v>
+      </c>
+      <c r="B129" t="s">
         <v>919</v>
-      </c>
-      <c r="B129" t="s">
-        <v>920</v>
       </c>
       <c r="D129">
         <v>42.708677999999999</v>
@@ -65950,10 +65950,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>920</v>
+      </c>
+      <c r="B130" t="s">
         <v>921</v>
-      </c>
-      <c r="B130" t="s">
-        <v>922</v>
       </c>
       <c r="D130">
         <v>46.862496</v>
@@ -65964,10 +65964,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>922</v>
+      </c>
+      <c r="B131" t="s">
         <v>923</v>
-      </c>
-      <c r="B131" t="s">
-        <v>924</v>
       </c>
       <c r="D131">
         <v>-18.665694999999999</v>
@@ -65978,10 +65978,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>924</v>
+      </c>
+      <c r="B132" t="s">
         <v>925</v>
-      </c>
-      <c r="B132" t="s">
-        <v>926</v>
       </c>
       <c r="D132">
         <v>-20.348403999999999</v>
@@ -65992,10 +65992,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>926</v>
+      </c>
+      <c r="B133" t="s">
         <v>927</v>
-      </c>
-      <c r="B133" t="s">
-        <v>928</v>
       </c>
       <c r="D133">
         <v>16.742498000000001</v>
@@ -66009,7 +66009,7 @@
         <v>625</v>
       </c>
       <c r="B134" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D134">
         <v>21.00789</v>
@@ -66020,10 +66020,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>929</v>
+      </c>
+      <c r="B135" t="s">
         <v>930</v>
-      </c>
-      <c r="B135" t="s">
-        <v>931</v>
       </c>
       <c r="D135">
         <v>14.641527999999999</v>
@@ -66034,10 +66034,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>931</v>
+      </c>
+      <c r="B136" t="s">
         <v>932</v>
-      </c>
-      <c r="B136" t="s">
-        <v>933</v>
       </c>
       <c r="D136">
         <v>-13.254308</v>
@@ -66048,10 +66048,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>933</v>
+      </c>
+      <c r="B137" t="s">
         <v>934</v>
-      </c>
-      <c r="B137" t="s">
-        <v>935</v>
       </c>
       <c r="D137">
         <v>21.913965000000001</v>
@@ -66062,10 +66062,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>935</v>
+      </c>
+      <c r="B138" t="s">
         <v>936</v>
-      </c>
-      <c r="B138" t="s">
-        <v>937</v>
       </c>
       <c r="D138">
         <v>-22.957640000000001</v>
@@ -66076,10 +66076,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>937</v>
+      </c>
+      <c r="B139" t="s">
         <v>938</v>
-      </c>
-      <c r="B139" t="s">
-        <v>939</v>
       </c>
       <c r="D139">
         <v>12.865416</v>
@@ -66090,10 +66090,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>939</v>
+      </c>
+      <c r="B140" t="s">
         <v>940</v>
-      </c>
-      <c r="B140" t="s">
-        <v>941</v>
       </c>
       <c r="D140">
         <v>-20.904305000000001</v>
@@ -66107,7 +66107,7 @@
         <v>566</v>
       </c>
       <c r="B141" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D141">
         <v>52.132632999999998</v>
@@ -66118,10 +66118,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>942</v>
+      </c>
+      <c r="B142" t="s">
         <v>943</v>
-      </c>
-      <c r="B142" t="s">
-        <v>944</v>
       </c>
       <c r="D142">
         <v>28.394856999999998</v>
@@ -66135,7 +66135,7 @@
         <v>573</v>
       </c>
       <c r="B143" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D143">
         <v>9.0819989999999997</v>
@@ -66146,10 +66146,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>945</v>
+      </c>
+      <c r="B144" t="s">
         <v>946</v>
-      </c>
-      <c r="B144" t="s">
-        <v>947</v>
       </c>
       <c r="D144">
         <v>17.607789</v>
@@ -66163,10 +66163,10 @@
         <v>586</v>
       </c>
       <c r="B145" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C145" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D145">
         <v>54.787700000000001</v>
@@ -66177,10 +66177,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>948</v>
+      </c>
+      <c r="B146" t="s">
         <v>949</v>
-      </c>
-      <c r="B146" t="s">
-        <v>950</v>
       </c>
       <c r="D146">
         <v>-19.054445000000001</v>
@@ -66191,10 +66191,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>950</v>
+      </c>
+      <c r="B147" t="s">
         <v>951</v>
-      </c>
-      <c r="B147" t="s">
-        <v>952</v>
       </c>
       <c r="D147">
         <v>15.097899999999999</v>
@@ -66208,7 +66208,7 @@
         <v>602</v>
       </c>
       <c r="B148" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D148">
         <v>60.472023999999998</v>
@@ -66222,7 +66222,7 @@
         <v>623</v>
       </c>
       <c r="B149" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D149">
         <v>-40.900556999999999</v>
@@ -66233,10 +66233,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>954</v>
+      </c>
+      <c r="B150" t="s">
         <v>955</v>
-      </c>
-      <c r="B150" t="s">
-        <v>956</v>
       </c>
       <c r="D150">
         <v>21.512582999999999</v>
@@ -66247,10 +66247,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>956</v>
+      </c>
+      <c r="B151" t="s">
         <v>957</v>
-      </c>
-      <c r="B151" t="s">
-        <v>958</v>
       </c>
       <c r="D151">
         <v>30.375321</v>
@@ -66261,10 +66261,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>958</v>
+      </c>
+      <c r="B152" t="s">
         <v>959</v>
-      </c>
-      <c r="B152" t="s">
-        <v>960</v>
       </c>
       <c r="D152">
         <v>8.5379810000000003</v>
@@ -66278,7 +66278,7 @@
         <v>595</v>
       </c>
       <c r="B153" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D153">
         <v>-23.442502999999999</v>
@@ -66289,10 +66289,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>961</v>
+      </c>
+      <c r="B154" t="s">
         <v>962</v>
-      </c>
-      <c r="B154" t="s">
-        <v>963</v>
       </c>
       <c r="D154">
         <v>-9.1899669999999993</v>
@@ -66303,10 +66303,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>963</v>
+      </c>
+      <c r="B155" t="s">
         <v>964</v>
-      </c>
-      <c r="B155" t="s">
-        <v>965</v>
       </c>
       <c r="D155">
         <v>12.879721</v>
@@ -66317,10 +66317,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>965</v>
+      </c>
+      <c r="B156" t="s">
         <v>966</v>
-      </c>
-      <c r="B156" t="s">
-        <v>967</v>
       </c>
       <c r="D156">
         <v>31.952162000000001</v>
@@ -66331,10 +66331,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>967</v>
+      </c>
+      <c r="B157" t="s">
         <v>968</v>
-      </c>
-      <c r="B157" t="s">
-        <v>969</v>
       </c>
       <c r="D157">
         <v>-6.3149930000000003</v>
@@ -66348,7 +66348,7 @@
         <v>594</v>
       </c>
       <c r="B158" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D158">
         <v>51.919438</v>
@@ -66362,7 +66362,7 @@
         <v>562</v>
       </c>
       <c r="B159" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D159">
         <v>39.399872000000002</v>
@@ -66373,10 +66373,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>971</v>
+      </c>
+      <c r="B160" t="s">
         <v>972</v>
-      </c>
-      <c r="B160" t="s">
-        <v>973</v>
       </c>
       <c r="D160">
         <v>40.339852</v>
@@ -66387,10 +66387,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>973</v>
+      </c>
+      <c r="B161" t="s">
         <v>974</v>
-      </c>
-      <c r="B161" t="s">
-        <v>975</v>
       </c>
       <c r="D161">
         <v>18.220832999999999</v>
@@ -66401,10 +66401,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>975</v>
+      </c>
+      <c r="B162" t="s">
         <v>976</v>
-      </c>
-      <c r="B162" t="s">
-        <v>977</v>
       </c>
       <c r="D162">
         <v>25.354825999999999</v>
@@ -66415,10 +66415,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>977</v>
+      </c>
+      <c r="B163" t="s">
         <v>978</v>
-      </c>
-      <c r="B163" t="s">
-        <v>979</v>
       </c>
       <c r="D163">
         <v>-21.115141000000001</v>
@@ -66429,10 +66429,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>979</v>
+      </c>
+      <c r="B164" t="s">
         <v>980</v>
-      </c>
-      <c r="B164" t="s">
-        <v>981</v>
       </c>
       <c r="D164">
         <v>45.943161000000003</v>
@@ -66446,7 +66446,7 @@
         <v>591</v>
       </c>
       <c r="B165" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D165">
         <v>-54.429578999999997</v>
@@ -66457,10 +66457,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>982</v>
+      </c>
+      <c r="B166" t="s">
         <v>983</v>
-      </c>
-      <c r="B166" t="s">
-        <v>984</v>
       </c>
       <c r="D166">
         <v>61.524009999999997</v>
@@ -66471,10 +66471,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>984</v>
+      </c>
+      <c r="B167" t="s">
         <v>985</v>
-      </c>
-      <c r="B167" t="s">
-        <v>986</v>
       </c>
       <c r="D167">
         <v>-1.9402779999999999</v>
@@ -66485,10 +66485,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>986</v>
+      </c>
+      <c r="B168" t="s">
         <v>987</v>
-      </c>
-      <c r="B168" t="s">
-        <v>988</v>
       </c>
       <c r="D168">
         <v>-13.759029</v>
@@ -66502,10 +66502,10 @@
         <v>559</v>
       </c>
       <c r="B169" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C169" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D169">
         <v>56.490699999999997</v>
@@ -66516,10 +66516,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>989</v>
+      </c>
+      <c r="B170" t="s">
         <v>990</v>
-      </c>
-      <c r="B170" t="s">
-        <v>991</v>
       </c>
       <c r="D170">
         <v>3.919305</v>
@@ -66533,7 +66533,7 @@
         <v>543</v>
       </c>
       <c r="B171" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D171">
         <v>14.497401</v>
@@ -66544,10 +66544,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>992</v>
+      </c>
+      <c r="B172" t="s">
         <v>993</v>
-      </c>
-      <c r="B172" t="s">
-        <v>994</v>
       </c>
       <c r="D172">
         <v>-4.6795739999999997</v>
@@ -66558,10 +66558,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>994</v>
+      </c>
+      <c r="B173" t="s">
         <v>995</v>
-      </c>
-      <c r="B173" t="s">
-        <v>996</v>
       </c>
       <c r="D173">
         <v>1.3520829999999999</v>
@@ -66575,7 +66575,7 @@
         <v>627</v>
       </c>
       <c r="B174" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D174">
         <v>17.357821999999999</v>
@@ -66586,10 +66586,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>997</v>
+      </c>
+      <c r="B175" t="s">
         <v>998</v>
-      </c>
-      <c r="B175" t="s">
-        <v>999</v>
       </c>
       <c r="D175">
         <v>8.4605549999999994</v>
@@ -66600,10 +66600,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>999</v>
+      </c>
+      <c r="B176" t="s">
         <v>1000</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1001</v>
       </c>
       <c r="D176">
         <v>13.794185000000001</v>
@@ -66614,10 +66614,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B177" t="s">
         <v>1002</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1003</v>
       </c>
       <c r="D177">
         <v>43.942360000000001</v>
@@ -66628,10 +66628,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B178" t="s">
         <v>1004</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1005</v>
       </c>
       <c r="D178">
         <v>18.082599999999999</v>
@@ -66642,10 +66642,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B179" t="s">
         <v>1006</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1007</v>
       </c>
       <c r="D179">
         <v>5.1521489999999996</v>
@@ -66656,10 +66656,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B180" t="s">
         <v>1008</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1009</v>
       </c>
       <c r="D180">
         <v>-30.559481999999999</v>
@@ -66673,7 +66673,7 @@
         <v>570</v>
       </c>
       <c r="B181" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D181">
         <v>44.016520999999997</v>
@@ -66684,10 +66684,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B182" t="s">
         <v>1011</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1012</v>
       </c>
       <c r="D182">
         <v>12.862807</v>
@@ -66698,10 +66698,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B183" t="s">
         <v>1013</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1014</v>
       </c>
       <c r="D183">
         <v>40.463667000000001</v>
@@ -66712,10 +66712,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B184" t="s">
         <v>1015</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1016</v>
       </c>
       <c r="D184">
         <v>0.18636</v>
@@ -66729,7 +66729,7 @@
         <v>581</v>
       </c>
       <c r="B185" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D185">
         <v>46.818187999999999</v>
@@ -66740,10 +66740,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B186" t="s">
         <v>1018</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1019</v>
       </c>
       <c r="D186">
         <v>77.553604000000007</v>
@@ -66757,7 +66757,7 @@
         <v>613</v>
       </c>
       <c r="B187" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D187">
         <v>46.151240999999999</v>
@@ -66768,10 +66768,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B188" t="s">
         <v>1021</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1022</v>
       </c>
       <c r="D188">
         <v>-9.6457099999999993</v>
@@ -66785,7 +66785,7 @@
         <v>568</v>
       </c>
       <c r="B189" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D189">
         <v>60.128160999999999</v>
@@ -66796,10 +66796,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B190" t="s">
         <v>1024</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1025</v>
       </c>
       <c r="D190">
         <v>-26.522503</v>
@@ -66810,10 +66810,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B191" t="s">
         <v>1026</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1027</v>
       </c>
       <c r="D191">
         <v>48.669026000000002</v>
@@ -66824,10 +66824,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B192" t="s">
         <v>1028</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1029</v>
       </c>
       <c r="D192">
         <v>34.802075000000002</v>
@@ -66838,10 +66838,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B193" t="s">
         <v>1030</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1031</v>
       </c>
       <c r="D193">
         <v>-17.6509</v>
@@ -66852,10 +66852,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B194" t="s">
         <v>1032</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1033</v>
       </c>
       <c r="D194">
         <v>-6.3690280000000001</v>
@@ -66866,10 +66866,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B195" t="s">
         <v>1034</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1035</v>
       </c>
       <c r="D195">
         <v>21.694025</v>
@@ -66880,10 +66880,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B196" t="s">
         <v>1036</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1037</v>
       </c>
       <c r="D196">
         <v>-21.178985999999998</v>
@@ -66894,10 +66894,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B197" t="s">
         <v>1038</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1039</v>
       </c>
       <c r="D197">
         <v>15.870032</v>
@@ -66908,10 +66908,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B198" t="s">
         <v>1040</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1041</v>
       </c>
       <c r="D198">
         <v>38.861033999999997</v>
@@ -66922,10 +66922,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B199" t="s">
         <v>1042</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1043</v>
       </c>
       <c r="D199">
         <v>38.969718999999998</v>
@@ -66936,10 +66936,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B200" t="s">
         <v>1044</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1045</v>
       </c>
       <c r="D200">
         <v>-8.8742169999999998</v>
@@ -66950,10 +66950,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B201" t="s">
         <v>1046</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1047</v>
       </c>
       <c r="D201">
         <v>8.6195430000000002</v>
@@ -66964,10 +66964,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B202" t="s">
         <v>1048</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1049</v>
       </c>
       <c r="D202">
         <v>23.69781</v>
@@ -66978,10 +66978,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B203" t="s">
         <v>1050</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1051</v>
       </c>
       <c r="D203">
         <v>10.691803</v>
@@ -66992,10 +66992,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B204" t="s">
         <v>1052</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1053</v>
       </c>
       <c r="D204">
         <v>33.886916999999997</v>
@@ -67009,7 +67009,7 @@
         <v>578</v>
       </c>
       <c r="B205" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D205">
         <v>38.963745000000003</v>
@@ -67020,10 +67020,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B206" t="s">
         <v>1055</v>
-      </c>
-      <c r="B206" t="s">
-        <v>1056</v>
       </c>
       <c r="D206">
         <v>-7.1095350000000002</v>
@@ -67034,10 +67034,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B207" t="s">
         <v>1057</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1058</v>
       </c>
       <c r="D207">
         <v>23.424075999999999</v>
@@ -67048,10 +67048,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B208" t="s">
         <v>1059</v>
-      </c>
-      <c r="B208" t="s">
-        <v>1060</v>
       </c>
       <c r="D208">
         <v>1.3733329999999999</v>
@@ -67065,7 +67065,7 @@
         <v>565</v>
       </c>
       <c r="B209" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D209">
         <v>48.379432999999999</v>
@@ -67079,7 +67079,7 @@
         <v>569</v>
       </c>
       <c r="B210" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D210">
         <v>-32.522779</v>
@@ -67093,7 +67093,7 @@
         <v>554</v>
       </c>
       <c r="B211" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D211">
         <v>37.090240000000001</v>
@@ -67104,10 +67104,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B212" t="s">
         <v>1064</v>
-      </c>
-      <c r="B212" t="s">
-        <v>1065</v>
       </c>
       <c r="D212">
         <v>41.377490999999999</v>
@@ -67118,10 +67118,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B213" t="s">
         <v>1066</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1067</v>
       </c>
       <c r="D213">
         <v>-15.376706</v>
@@ -67132,10 +67132,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B214" t="s">
         <v>1068</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1069</v>
       </c>
       <c r="D214">
         <v>6.4237500000000001</v>
@@ -67146,10 +67146,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B215" t="s">
         <v>1070</v>
-      </c>
-      <c r="B215" t="s">
-        <v>1071</v>
       </c>
       <c r="D215">
         <v>18.420694999999998</v>
@@ -67160,10 +67160,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B216" t="s">
         <v>1072</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1073</v>
       </c>
       <c r="D216">
         <v>14.058324000000001</v>
@@ -67174,10 +67174,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B217" t="s">
         <v>1074</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1075</v>
       </c>
       <c r="D217">
         <v>12.984305000000001</v>
@@ -67188,10 +67188,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B218" t="s">
         <v>1076</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1077</v>
       </c>
       <c r="D218">
         <v>18.335764999999999</v>
@@ -67205,10 +67205,10 @@
         <v>571</v>
       </c>
       <c r="B219" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C219" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D219">
         <v>51.130699999999997</v>
@@ -67219,10 +67219,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B220" t="s">
         <v>1079</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1080</v>
       </c>
       <c r="D220">
         <v>15.552727000000001</v>
@@ -67233,10 +67233,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B221" t="s">
         <v>1081</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1082</v>
       </c>
       <c r="D221">
         <v>-13.133896999999999</v>
@@ -67247,10 +67247,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B222" t="s">
         <v>1083</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1084</v>
       </c>
       <c r="D222">
         <v>-6.1356999999999999</v>
@@ -67264,7 +67264,7 @@
         <v>611</v>
       </c>
       <c r="B223" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D223">
         <v>-19.015438</v>

--- a/EPL Data/EPL Data.xlsx
+++ b/EPL Data/EPL Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COP511\NeverFindMe\EPL Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiaju\Documents\GitHub\NeverFindMe\EPL Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7438321A-C7D0-4C40-B7BA-80BDAF628AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B3C786-4EF9-4421-9F57-EA76F88BF3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Info" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4413" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="1080">
   <si>
     <t>Name</t>
   </si>
@@ -2123,15 +2123,6 @@
     <t>Country (Name)</t>
   </si>
   <si>
-    <t>State/Province</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
     <t>AFG</t>
   </si>
   <si>
@@ -2444,9 +2435,6 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>England</t>
-  </si>
-  <si>
     <t>EQG</t>
   </si>
   <si>
@@ -2876,9 +2864,6 @@
     <t>Niger</t>
   </si>
   <si>
-    <t>Northern Ireland</t>
-  </si>
-  <si>
     <t>NIU</t>
   </si>
   <si>
@@ -2999,9 +2984,6 @@
     <t>Samoa</t>
   </si>
   <si>
-    <t>Scotland</t>
-  </si>
-  <si>
     <t>SDN</t>
   </si>
   <si>
@@ -3264,9 +3246,6 @@
   </si>
   <si>
     <t>U.S. Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wales</t>
   </si>
   <si>
     <t>YEM</t>
@@ -40416,7 +40395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DCE5D9-E308-4F80-B3D1-2050E2D121D9}">
   <dimension ref="A1:T156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -40427,7 +40406,7 @@
         <v>669</v>
       </c>
       <c r="B1" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="C1" t="s">
         <v>674</v>
@@ -50114,7 +50093,7 @@
         <v>669</v>
       </c>
       <c r="B1" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="C1" t="s">
         <v>674</v>
@@ -64128,3149 +64107,1796 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5FB72B-D17E-4903-B517-0FCCDE16602F}">
-  <dimension ref="A1:E223"/>
+  <dimension ref="A1:B223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>694</v>
       </c>
       <c r="B1" t="s">
         <v>695</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>696</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>697</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
         <v>699</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>700</v>
       </c>
-      <c r="D2">
-        <v>33.939109999999999</v>
-      </c>
-      <c r="E2">
-        <v>67.709952999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>701</v>
       </c>
-      <c r="B3" t="s">
-        <v>702</v>
-      </c>
-      <c r="D3">
-        <v>18.220554</v>
-      </c>
-      <c r="E3">
-        <v>-63.068615000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>703</v>
-      </c>
-      <c r="B4" t="s">
-        <v>704</v>
-      </c>
-      <c r="D4">
-        <v>41.153331999999999</v>
-      </c>
-      <c r="E4">
-        <v>20.168330999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>564</v>
       </c>
       <c r="B5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>703</v>
+      </c>
+      <c r="B6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>705</v>
       </c>
-      <c r="D5">
-        <v>28.033885999999999</v>
-      </c>
-      <c r="E5">
-        <v>1.659626</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>706</v>
       </c>
-      <c r="B6" t="s">
-        <v>707</v>
-      </c>
-      <c r="D6">
-        <v>42.546244999999999</v>
-      </c>
-      <c r="E6">
-        <v>1.6015539999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>708</v>
-      </c>
-      <c r="B7" t="s">
-        <v>709</v>
-      </c>
-      <c r="D7">
-        <v>-11.202692000000001</v>
-      </c>
-      <c r="E7">
-        <v>17.873887</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>560</v>
       </c>
       <c r="B8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>708</v>
+      </c>
+      <c r="B9" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>710</v>
       </c>
-      <c r="D8">
-        <v>-38.416097000000001</v>
-      </c>
-      <c r="E8">
-        <v>-63.616672000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>711</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>710</v>
+      </c>
+      <c r="B11" t="s">
         <v>712</v>
       </c>
-      <c r="D9">
-        <v>40.069099000000001</v>
-      </c>
-      <c r="E9">
-        <v>45.038189000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>713</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>714</v>
       </c>
-      <c r="D10">
-        <v>12.52111</v>
-      </c>
-      <c r="E10">
-        <v>-69.968338000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>713</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>715</v>
       </c>
-      <c r="D11">
-        <v>-25.274398000000001</v>
-      </c>
-      <c r="E11">
-        <v>133.775136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
         <v>716</v>
       </c>
-      <c r="B12" t="s">
-        <v>717</v>
-      </c>
-      <c r="D12">
-        <v>-14.270972</v>
-      </c>
-      <c r="E12">
-        <v>-170.132217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>718</v>
-      </c>
-      <c r="B13" t="s">
-        <v>719</v>
-      </c>
-      <c r="D13">
-        <v>17.060815999999999</v>
-      </c>
-      <c r="E13">
-        <v>-61.796427999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>589</v>
       </c>
       <c r="B14" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>718</v>
+      </c>
+      <c r="B15" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>720</v>
       </c>
-      <c r="D14">
-        <v>47.516230999999998</v>
-      </c>
-      <c r="E14">
-        <v>14.550072</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
         <v>721</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>722</v>
       </c>
-      <c r="D15">
-        <v>40.143104999999998</v>
-      </c>
-      <c r="E15">
-        <v>47.576926999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
         <v>723</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>724</v>
       </c>
-      <c r="D16">
-        <v>25.034279999999999</v>
-      </c>
-      <c r="E16">
-        <v>-77.396280000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
         <v>725</v>
       </c>
-      <c r="B17" t="s">
-        <v>726</v>
-      </c>
-      <c r="D17">
-        <v>23.684994</v>
-      </c>
-      <c r="E17">
-        <v>90.356330999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>727</v>
-      </c>
-      <c r="B18" t="s">
-        <v>728</v>
-      </c>
-      <c r="D18">
-        <v>-3.3730560000000001</v>
-      </c>
-      <c r="E18">
-        <v>29.918886000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>563</v>
       </c>
       <c r="B19" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>727</v>
+      </c>
+      <c r="B20" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>729</v>
       </c>
-      <c r="D19">
-        <v>50.503886999999999</v>
-      </c>
-      <c r="E19">
-        <v>4.4699359999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
         <v>730</v>
       </c>
-      <c r="B20" t="s">
-        <v>731</v>
-      </c>
-      <c r="D20">
-        <v>9.3076899999999991</v>
-      </c>
-      <c r="E20">
-        <v>2.3158340000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>732</v>
-      </c>
-      <c r="B21" t="s">
-        <v>733</v>
-      </c>
-      <c r="D21">
-        <v>32.321384000000002</v>
-      </c>
-      <c r="E21">
-        <v>-64.757369999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>610</v>
       </c>
       <c r="B22" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>732</v>
+      </c>
+      <c r="B23" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>734</v>
       </c>
-      <c r="D22">
-        <v>12.238333000000001</v>
-      </c>
-      <c r="E22">
-        <v>-1.561593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
         <v>735</v>
       </c>
-      <c r="B23" t="s">
-        <v>736</v>
-      </c>
-      <c r="D23">
-        <v>25.930413999999999</v>
-      </c>
-      <c r="E23">
-        <v>50.637771999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>737</v>
-      </c>
-      <c r="B24" t="s">
-        <v>738</v>
-      </c>
-      <c r="D24">
-        <v>27.514161999999999</v>
-      </c>
-      <c r="E24">
-        <v>90.433600999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>604</v>
       </c>
       <c r="B25" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>737</v>
+      </c>
+      <c r="B26" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>739</v>
       </c>
-      <c r="D25">
-        <v>43.915886</v>
-      </c>
-      <c r="E25">
-        <v>17.679075999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B27" t="s">
         <v>740</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>741</v>
       </c>
-      <c r="D26">
-        <v>53.709806999999998</v>
-      </c>
-      <c r="E26">
-        <v>27.953389000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
         <v>742</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>743</v>
       </c>
-      <c r="D27">
-        <v>17.189876999999999</v>
-      </c>
-      <c r="E27">
-        <v>-88.497649999999993</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
         <v>744</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>745</v>
       </c>
-      <c r="D28">
-        <v>12.144299999999999</v>
-      </c>
-      <c r="E28">
-        <v>-68.265500000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
         <v>746</v>
       </c>
-      <c r="B29" t="s">
-        <v>747</v>
-      </c>
-      <c r="D29">
-        <v>-16.290154000000001</v>
-      </c>
-      <c r="E29">
-        <v>-63.588653000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>748</v>
-      </c>
-      <c r="B30" t="s">
-        <v>749</v>
-      </c>
-      <c r="D30">
-        <v>-22.328474</v>
-      </c>
-      <c r="E30">
-        <v>24.684866</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>552</v>
       </c>
       <c r="B31" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>748</v>
+      </c>
+      <c r="B32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>750</v>
       </c>
-      <c r="D31">
-        <v>-14.235004</v>
-      </c>
-      <c r="E31">
-        <v>-51.925280000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B33" t="s">
         <v>751</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>752</v>
       </c>
-      <c r="D32">
-        <v>13.193887</v>
-      </c>
-      <c r="E32">
-        <v>-59.543197999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
         <v>753</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>754</v>
       </c>
-      <c r="D33">
-        <v>4.5352769999999998</v>
-      </c>
-      <c r="E33">
-        <v>114.72766900000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
         <v>755</v>
       </c>
-      <c r="B34" t="s">
-        <v>756</v>
-      </c>
-      <c r="D34">
-        <v>42.733882999999999</v>
-      </c>
-      <c r="E34">
-        <v>25.48583</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>757</v>
-      </c>
-      <c r="B35" t="s">
-        <v>758</v>
-      </c>
-      <c r="D35">
-        <v>12.565678999999999</v>
-      </c>
-      <c r="E35">
-        <v>104.99096299999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>616</v>
       </c>
       <c r="B36" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>757</v>
+      </c>
+      <c r="B37" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>759</v>
       </c>
-      <c r="D36">
-        <v>56.130366000000002</v>
-      </c>
-      <c r="E36">
-        <v>-106.346771</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B38" t="s">
         <v>760</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>761</v>
       </c>
-      <c r="D37">
-        <v>19.513469000000001</v>
-      </c>
-      <c r="E37">
-        <v>-80.566956000000005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B39" t="s">
         <v>762</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>763</v>
       </c>
-      <c r="D38">
-        <v>-4.0383329999999997</v>
-      </c>
-      <c r="E38">
-        <v>21.758664</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
         <v>764</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>765</v>
       </c>
-      <c r="D39">
-        <v>15.454166000000001</v>
-      </c>
-      <c r="E39">
-        <v>18.732206999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B41" t="s">
         <v>766</v>
       </c>
-      <c r="B40" t="s">
-        <v>767</v>
-      </c>
-      <c r="D40">
-        <v>-35.675147000000003</v>
-      </c>
-      <c r="E40">
-        <v>-71.542968999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>768</v>
-      </c>
-      <c r="B41" t="s">
-        <v>769</v>
-      </c>
-      <c r="D41">
-        <v>35.861660000000001</v>
-      </c>
-      <c r="E41">
-        <v>104.195397</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>572</v>
       </c>
       <c r="B42" t="s">
-        <v>770</v>
-      </c>
-      <c r="D42">
-        <v>7.5399890000000003</v>
-      </c>
-      <c r="E42">
-        <v>-5.5470800000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>579</v>
       </c>
       <c r="B43" t="s">
-        <v>771</v>
-      </c>
-      <c r="D43">
-        <v>7.3697220000000003</v>
-      </c>
-      <c r="E43">
-        <v>12.354722000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>596</v>
       </c>
       <c r="B44" t="s">
-        <v>772</v>
-      </c>
-      <c r="D44">
-        <v>-0.228021</v>
-      </c>
-      <c r="E44">
-        <v>15.827659000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B45" t="s">
-        <v>774</v>
-      </c>
-      <c r="D45">
-        <v>-21.236736000000001</v>
-      </c>
-      <c r="E45">
-        <v>-159.777671</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>599</v>
       </c>
       <c r="B46" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>773</v>
+      </c>
+      <c r="B47" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>775</v>
       </c>
-      <c r="D46">
-        <v>4.5708679999999999</v>
-      </c>
-      <c r="E46">
-        <v>-74.297332999999995</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B48" t="s">
         <v>776</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>777</v>
       </c>
-      <c r="D47">
-        <v>-11.875000999999999</v>
-      </c>
-      <c r="E47">
-        <v>43.872219000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B49" t="s">
         <v>778</v>
       </c>
-      <c r="B48" t="s">
-        <v>779</v>
-      </c>
-      <c r="D48">
-        <v>16.002082000000001</v>
-      </c>
-      <c r="E48">
-        <v>-24.013197000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>780</v>
-      </c>
-      <c r="B49" t="s">
-        <v>781</v>
-      </c>
-      <c r="D49">
-        <v>9.7489170000000005</v>
-      </c>
-      <c r="E49">
-        <v>-83.753428</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>553</v>
       </c>
       <c r="B50" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>780</v>
+      </c>
+      <c r="B51" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>782</v>
       </c>
-      <c r="D50">
-        <v>45.1</v>
-      </c>
-      <c r="E50">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B52" t="s">
         <v>783</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>784</v>
       </c>
-      <c r="D51">
-        <v>6.6111110000000002</v>
-      </c>
-      <c r="E51">
-        <v>20.939444000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B53" t="s">
         <v>785</v>
       </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>786</v>
       </c>
-      <c r="D52">
-        <v>21.521757000000001</v>
-      </c>
-      <c r="E52">
-        <v>-77.781166999999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B54" t="s">
         <v>787</v>
       </c>
-      <c r="B53" t="s">
-        <v>788</v>
-      </c>
-      <c r="D53">
-        <v>12.169600000000001</v>
-      </c>
-      <c r="E53">
-        <v>-68.989999999999995</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>789</v>
-      </c>
-      <c r="B54" t="s">
-        <v>790</v>
-      </c>
-      <c r="D54">
-        <v>35.126412999999999</v>
-      </c>
-      <c r="E54">
-        <v>33.429859</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>592</v>
       </c>
       <c r="B55" t="s">
-        <v>791</v>
-      </c>
-      <c r="D55">
-        <v>49.817492000000001</v>
-      </c>
-      <c r="E55">
-        <v>15.472962000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>556</v>
       </c>
       <c r="B56" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>790</v>
+      </c>
+      <c r="B57" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>792</v>
       </c>
-      <c r="D56">
-        <v>56.263919999999999</v>
-      </c>
-      <c r="E56">
-        <v>9.5017849999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B58" t="s">
         <v>793</v>
       </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>794</v>
       </c>
-      <c r="D57">
-        <v>11.825138000000001</v>
-      </c>
-      <c r="E57">
-        <v>42.590274999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B59" t="s">
         <v>795</v>
       </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>796</v>
       </c>
-      <c r="D58">
-        <v>15.414999</v>
-      </c>
-      <c r="E58">
-        <v>-61.370975999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B60" t="s">
         <v>797</v>
       </c>
-      <c r="B59" t="s">
-        <v>798</v>
-      </c>
-      <c r="D59">
-        <v>18.735693000000001</v>
-      </c>
-      <c r="E59">
-        <v>-70.162650999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>799</v>
-      </c>
-      <c r="B60" t="s">
-        <v>800</v>
-      </c>
-      <c r="D60">
-        <v>-1.8312390000000001</v>
-      </c>
-      <c r="E60">
-        <v>-78.183406000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>575</v>
       </c>
       <c r="B61" t="s">
-        <v>801</v>
-      </c>
-      <c r="D61">
-        <v>26.820553</v>
-      </c>
-      <c r="E61">
-        <v>30.802498</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>540</v>
       </c>
       <c r="B62" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>800</v>
+      </c>
+      <c r="B63" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>802</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B64" t="s">
         <v>803</v>
       </c>
-      <c r="D62">
-        <v>52.355499999999999</v>
-      </c>
-      <c r="E62">
-        <v>-1.1742999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>804</v>
-      </c>
-      <c r="B63" t="s">
-        <v>805</v>
-      </c>
-      <c r="D63">
-        <v>1.650801</v>
-      </c>
-      <c r="E63">
-        <v>10.267894999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>806</v>
-      </c>
-      <c r="B64" t="s">
-        <v>807</v>
-      </c>
-      <c r="D64">
-        <v>15.179384000000001</v>
-      </c>
-      <c r="E64">
-        <v>39.782333999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>548</v>
       </c>
       <c r="B65" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>805</v>
+      </c>
+      <c r="B66" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>807</v>
+      </c>
+      <c r="B67" t="s">
         <v>808</v>
       </c>
-      <c r="D65">
-        <v>7.8730539999999998</v>
-      </c>
-      <c r="E65">
-        <v>80.771797000000007</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>809</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>810</v>
       </c>
-      <c r="D66">
-        <v>58.595272000000001</v>
-      </c>
-      <c r="E66">
-        <v>25.013607</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>811</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>812</v>
       </c>
-      <c r="D67">
-        <v>9.1449999999999996</v>
-      </c>
-      <c r="E67">
-        <v>40.489673000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>813</v>
-      </c>
-      <c r="B68" t="s">
-        <v>814</v>
-      </c>
-      <c r="D68">
-        <v>-16.578192999999999</v>
-      </c>
-      <c r="E68">
-        <v>179.414413</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>815</v>
-      </c>
-      <c r="B69" t="s">
-        <v>816</v>
-      </c>
-      <c r="D69">
-        <v>61.924109999999999</v>
-      </c>
-      <c r="E69">
-        <v>25.748151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>549</v>
       </c>
       <c r="B70" t="s">
-        <v>817</v>
-      </c>
-      <c r="D70">
-        <v>46.227637999999999</v>
-      </c>
-      <c r="E70">
-        <v>2.213749</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B71" t="s">
-        <v>819</v>
-      </c>
-      <c r="D71">
-        <v>-51.796253</v>
-      </c>
-      <c r="E71">
-        <v>-59.523612999999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>601</v>
       </c>
       <c r="B72" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>817</v>
+      </c>
+      <c r="B73" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>819</v>
+      </c>
+      <c r="B74" t="s">
         <v>820</v>
       </c>
-      <c r="D72">
-        <v>-0.80368899999999999</v>
-      </c>
-      <c r="E72">
-        <v>11.609444</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>821</v>
-      </c>
-      <c r="B73" t="s">
-        <v>822</v>
-      </c>
-      <c r="D73">
-        <v>13.443182</v>
-      </c>
-      <c r="E73">
-        <v>-15.310138999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>823</v>
-      </c>
-      <c r="B74" t="s">
-        <v>824</v>
-      </c>
-      <c r="D74">
-        <v>42.315407</v>
-      </c>
-      <c r="E74">
-        <v>43.356892000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>545</v>
       </c>
       <c r="B75" t="s">
-        <v>825</v>
-      </c>
-      <c r="D75">
-        <v>51.165691000000002</v>
-      </c>
-      <c r="E75">
-        <v>10.451525999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>588</v>
       </c>
       <c r="B76" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>823</v>
+      </c>
+      <c r="B77" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>825</v>
+      </c>
+      <c r="B78" t="s">
         <v>826</v>
       </c>
-      <c r="D76">
-        <v>7.9465269999999997</v>
-      </c>
-      <c r="E76">
-        <v>-1.0231939999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>827</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" t="s">
         <v>828</v>
       </c>
-      <c r="D77">
-        <v>36.137740999999998</v>
-      </c>
-      <c r="E77">
-        <v>-5.3453739999999996</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>829</v>
-      </c>
-      <c r="B78" t="s">
-        <v>830</v>
-      </c>
-      <c r="D78">
-        <v>11.803749</v>
-      </c>
-      <c r="E78">
-        <v>-15.180413</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>831</v>
-      </c>
-      <c r="B79" t="s">
-        <v>832</v>
-      </c>
-      <c r="D79">
-        <v>16.995971000000001</v>
-      </c>
-      <c r="E79">
-        <v>-62.067641000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>584</v>
       </c>
       <c r="B80" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>830</v>
+      </c>
+      <c r="B81" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>832</v>
+      </c>
+      <c r="B82" t="s">
         <v>833</v>
       </c>
-      <c r="D80">
-        <v>39.074207999999999</v>
-      </c>
-      <c r="E80">
-        <v>21.824311999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>834</v>
-      </c>
-      <c r="B81" t="s">
-        <v>835</v>
-      </c>
-      <c r="D81">
-        <v>12.262776000000001</v>
-      </c>
-      <c r="E81">
-        <v>-61.604171000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>836</v>
-      </c>
-      <c r="B82" t="s">
-        <v>837</v>
-      </c>
-      <c r="D82">
-        <v>15.783471</v>
-      </c>
-      <c r="E82">
-        <v>-90.230759000000006</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>580</v>
       </c>
       <c r="B83" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>835</v>
+      </c>
+      <c r="B84" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>837</v>
+      </c>
+      <c r="B85" t="s">
         <v>838</v>
       </c>
-      <c r="D83">
-        <v>9.9455869999999997</v>
-      </c>
-      <c r="E83">
-        <v>-9.6966450000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>839</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" t="s">
         <v>840</v>
       </c>
-      <c r="D84">
-        <v>13.444304000000001</v>
-      </c>
-      <c r="E84">
-        <v>144.79373100000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>841</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>842</v>
       </c>
-      <c r="D85">
-        <v>4.8604159999999998</v>
-      </c>
-      <c r="E85">
-        <v>-58.93018</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>843</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>844</v>
       </c>
-      <c r="D86">
-        <v>3.9338890000000002</v>
-      </c>
-      <c r="E86">
-        <v>-53.125782000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>845</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
         <v>846</v>
       </c>
-      <c r="D87">
-        <v>18.971187</v>
-      </c>
-      <c r="E87">
-        <v>-72.285214999999994</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>847</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" t="s">
         <v>848</v>
       </c>
-      <c r="D88">
-        <v>22.396428</v>
-      </c>
-      <c r="E88">
-        <v>114.109497</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>849</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
         <v>850</v>
       </c>
-      <c r="D89">
-        <v>15.199999</v>
-      </c>
-      <c r="E89">
-        <v>-86.241905000000003</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>851</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" t="s">
         <v>852</v>
       </c>
-      <c r="D90">
-        <v>47.162494000000002</v>
-      </c>
-      <c r="E90">
-        <v>19.503304</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>853</v>
-      </c>
-      <c r="B91" t="s">
-        <v>854</v>
-      </c>
-      <c r="D91">
-        <v>-0.78927499999999995</v>
-      </c>
-      <c r="E91">
-        <v>113.92132700000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>855</v>
-      </c>
-      <c r="B92" t="s">
-        <v>856</v>
-      </c>
-      <c r="D92">
-        <v>20.593684</v>
-      </c>
-      <c r="E92">
-        <v>78.962879999999998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>583</v>
       </c>
       <c r="B93" t="s">
-        <v>857</v>
-      </c>
-      <c r="D93">
-        <v>53.412909999999997</v>
-      </c>
-      <c r="E93">
-        <v>-8.2438900000000004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>621</v>
       </c>
       <c r="B94" t="s">
-        <v>858</v>
-      </c>
-      <c r="D94">
-        <v>32.427908000000002</v>
-      </c>
-      <c r="E94">
-        <v>53.688046</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B95" t="s">
-        <v>860</v>
-      </c>
-      <c r="D95">
-        <v>33.223191</v>
-      </c>
-      <c r="E95">
-        <v>43.679290999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>605</v>
       </c>
       <c r="B96" t="s">
-        <v>861</v>
-      </c>
-      <c r="D96">
-        <v>64.963050999999993</v>
-      </c>
-      <c r="E96">
-        <v>-19.020835000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B97" t="s">
-        <v>863</v>
-      </c>
-      <c r="D97">
-        <v>31.046050999999999</v>
-      </c>
-      <c r="E97">
-        <v>34.851612000000003</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>551</v>
       </c>
       <c r="B98" t="s">
-        <v>864</v>
-      </c>
-      <c r="D98">
-        <v>41.871940000000002</v>
-      </c>
-      <c r="E98">
-        <v>12.56738</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>590</v>
       </c>
       <c r="B99" t="s">
-        <v>865</v>
-      </c>
-      <c r="D99">
-        <v>18.109580999999999</v>
-      </c>
-      <c r="E99">
-        <v>-77.297507999999993</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B100" t="s">
-        <v>867</v>
-      </c>
-      <c r="D100">
-        <v>30.585163999999999</v>
-      </c>
-      <c r="E100">
-        <v>36.238413999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>582</v>
       </c>
       <c r="B101" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>865</v>
+      </c>
+      <c r="B102" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>867</v>
+      </c>
+      <c r="B103" t="s">
         <v>868</v>
       </c>
-      <c r="D101">
-        <v>36.204824000000002</v>
-      </c>
-      <c r="E101">
-        <v>138.25292400000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>869</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B104" t="s">
         <v>870</v>
       </c>
-      <c r="D102">
-        <v>48.019573000000001</v>
-      </c>
-      <c r="E102">
-        <v>66.923683999999994</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>871</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B105" t="s">
         <v>872</v>
       </c>
-      <c r="D103">
-        <v>-2.3559E-2</v>
-      </c>
-      <c r="E103">
-        <v>37.906193000000002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>873</v>
-      </c>
-      <c r="B104" t="s">
-        <v>874</v>
-      </c>
-      <c r="D104">
-        <v>41.20438</v>
-      </c>
-      <c r="E104">
-        <v>74.766098</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>875</v>
-      </c>
-      <c r="B105" t="s">
-        <v>876</v>
-      </c>
-      <c r="D105">
-        <v>-3.3704170000000002</v>
-      </c>
-      <c r="E105">
-        <v>-168.734039</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>598</v>
       </c>
       <c r="B106" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>874</v>
+      </c>
+      <c r="B107" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>876</v>
+      </c>
+      <c r="B108" t="s">
         <v>877</v>
       </c>
-      <c r="D106">
-        <v>35.907756999999997</v>
-      </c>
-      <c r="E106">
-        <v>127.76692199999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>878</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
         <v>879</v>
       </c>
-      <c r="D107">
-        <v>23.885942</v>
-      </c>
-      <c r="E107">
-        <v>45.079161999999997</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>880</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" t="s">
         <v>881</v>
       </c>
-      <c r="D108">
-        <v>29.31166</v>
-      </c>
-      <c r="E108">
-        <v>47.481766</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>882</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B111" t="s">
         <v>883</v>
       </c>
-      <c r="D109">
-        <v>19.856269999999999</v>
-      </c>
-      <c r="E109">
-        <v>102.495496</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>884</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B112" t="s">
         <v>885</v>
       </c>
-      <c r="D110">
-        <v>6.4280549999999996</v>
-      </c>
-      <c r="E110">
-        <v>-9.4294989999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>886</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B113" t="s">
         <v>887</v>
       </c>
-      <c r="D111">
-        <v>26.335100000000001</v>
-      </c>
-      <c r="E111">
-        <v>17.228331000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>888</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" t="s">
         <v>889</v>
       </c>
-      <c r="D112">
-        <v>13.909444000000001</v>
-      </c>
-      <c r="E112">
-        <v>-60.978892999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>890</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B115" t="s">
         <v>891</v>
       </c>
-      <c r="D113">
-        <v>-29.609988000000001</v>
-      </c>
-      <c r="E113">
-        <v>28.233608</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>892</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B116" t="s">
         <v>893</v>
       </c>
-      <c r="D114">
-        <v>33.854720999999998</v>
-      </c>
-      <c r="E114">
-        <v>35.862285</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>894</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>895</v>
       </c>
-      <c r="D115">
-        <v>47.165999999999997</v>
-      </c>
-      <c r="E115">
-        <v>9.5553729999999995</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>896</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B118" t="s">
         <v>897</v>
       </c>
-      <c r="D116">
-        <v>55.169438</v>
-      </c>
-      <c r="E116">
-        <v>23.881274999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>898</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B119" t="s">
         <v>899</v>
       </c>
-      <c r="D117">
-        <v>49.815272999999998</v>
-      </c>
-      <c r="E117">
-        <v>6.1295830000000002</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>900</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B120" t="s">
         <v>901</v>
       </c>
-      <c r="D118">
-        <v>56.879635</v>
-      </c>
-      <c r="E118">
-        <v>24.603189</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>902</v>
-      </c>
-      <c r="B119" t="s">
-        <v>903</v>
-      </c>
-      <c r="D119">
-        <v>22.198744999999999</v>
-      </c>
-      <c r="E119">
-        <v>113.543873</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>904</v>
-      </c>
-      <c r="B120" t="s">
-        <v>905</v>
-      </c>
-      <c r="D120">
-        <v>-18.766946999999998</v>
-      </c>
-      <c r="E120">
-        <v>46.869107</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>557</v>
       </c>
       <c r="B121" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>903</v>
+      </c>
+      <c r="B122" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>905</v>
+      </c>
+      <c r="B123" t="s">
         <v>906</v>
       </c>
-      <c r="D121">
-        <v>31.791702000000001</v>
-      </c>
-      <c r="E121">
-        <v>-7.0926200000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>907</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B124" t="s">
         <v>908</v>
       </c>
-      <c r="D122">
-        <v>4.2104840000000001</v>
-      </c>
-      <c r="E122">
-        <v>101.97576599999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>909</v>
-      </c>
-      <c r="B123" t="s">
-        <v>910</v>
-      </c>
-      <c r="D123">
-        <v>47.411631</v>
-      </c>
-      <c r="E123">
-        <v>28.369885</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>911</v>
-      </c>
-      <c r="B124" t="s">
-        <v>912</v>
-      </c>
-      <c r="D124">
-        <v>3.2027779999999999</v>
-      </c>
-      <c r="E124">
-        <v>73.220680000000002</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>615</v>
       </c>
       <c r="B125" t="s">
-        <v>913</v>
-      </c>
-      <c r="D125">
-        <v>23.634501</v>
-      </c>
-      <c r="E125">
-        <v>-102.552784</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>607</v>
       </c>
       <c r="B126" t="s">
-        <v>914</v>
-      </c>
-      <c r="D126">
-        <v>41.608635</v>
-      </c>
-      <c r="E126">
-        <v>21.745274999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>619</v>
       </c>
       <c r="B127" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>912</v>
+      </c>
+      <c r="B128" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>914</v>
+      </c>
+      <c r="B129" t="s">
         <v>915</v>
       </c>
-      <c r="D127">
-        <v>17.570692000000001</v>
-      </c>
-      <c r="E127">
-        <v>-3.9961660000000001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>916</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B130" t="s">
         <v>917</v>
       </c>
-      <c r="D128">
-        <v>35.937496000000003</v>
-      </c>
-      <c r="E128">
-        <v>14.375416</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>918</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B131" t="s">
         <v>919</v>
       </c>
-      <c r="D129">
-        <v>42.708677999999999</v>
-      </c>
-      <c r="E129">
-        <v>19.374389999999998</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>920</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B132" t="s">
         <v>921</v>
       </c>
-      <c r="D130">
-        <v>46.862496</v>
-      </c>
-      <c r="E130">
-        <v>103.846656</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>922</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B133" t="s">
         <v>923</v>
       </c>
-      <c r="D131">
-        <v>-18.665694999999999</v>
-      </c>
-      <c r="E131">
-        <v>35.529561999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>924</v>
-      </c>
-      <c r="B132" t="s">
-        <v>925</v>
-      </c>
-      <c r="D132">
-        <v>-20.348403999999999</v>
-      </c>
-      <c r="E132">
-        <v>57.552152</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>926</v>
-      </c>
-      <c r="B133" t="s">
-        <v>927</v>
-      </c>
-      <c r="D133">
-        <v>16.742498000000001</v>
-      </c>
-      <c r="E133">
-        <v>-62.187365999999997</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>625</v>
       </c>
       <c r="B134" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>925</v>
+      </c>
+      <c r="B135" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>927</v>
+      </c>
+      <c r="B136" t="s">
         <v>928</v>
       </c>
-      <c r="D134">
-        <v>21.00789</v>
-      </c>
-      <c r="E134">
-        <v>-10.940835</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>929</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B137" t="s">
         <v>930</v>
       </c>
-      <c r="D135">
-        <v>14.641527999999999</v>
-      </c>
-      <c r="E135">
-        <v>-61.024174000000002</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>931</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B138" t="s">
         <v>932</v>
       </c>
-      <c r="D136">
-        <v>-13.254308</v>
-      </c>
-      <c r="E136">
-        <v>34.301524999999998</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>933</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B139" t="s">
         <v>934</v>
       </c>
-      <c r="D137">
-        <v>21.913965000000001</v>
-      </c>
-      <c r="E137">
-        <v>95.956222999999994</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>935</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B140" t="s">
         <v>936</v>
       </c>
-      <c r="D138">
-        <v>-22.957640000000001</v>
-      </c>
-      <c r="E138">
-        <v>18.490410000000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>937</v>
-      </c>
-      <c r="B139" t="s">
-        <v>938</v>
-      </c>
-      <c r="D139">
-        <v>12.865416</v>
-      </c>
-      <c r="E139">
-        <v>-85.207228999999998</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>939</v>
-      </c>
-      <c r="B140" t="s">
-        <v>940</v>
-      </c>
-      <c r="D140">
-        <v>-20.904305000000001</v>
-      </c>
-      <c r="E140">
-        <v>165.618042</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>566</v>
       </c>
       <c r="B141" t="s">
-        <v>941</v>
-      </c>
-      <c r="D141">
-        <v>52.132632999999998</v>
-      </c>
-      <c r="E141">
-        <v>5.2912660000000002</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B142" t="s">
-        <v>943</v>
-      </c>
-      <c r="D142">
-        <v>28.394856999999998</v>
-      </c>
-      <c r="E142">
-        <v>84.124008000000003</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>573</v>
       </c>
       <c r="B143" t="s">
-        <v>944</v>
-      </c>
-      <c r="D143">
-        <v>9.0819989999999997</v>
-      </c>
-      <c r="E143">
-        <v>8.6752769999999995</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B144" t="s">
-        <v>946</v>
-      </c>
-      <c r="D144">
-        <v>17.607789</v>
-      </c>
-      <c r="E144">
-        <v>8.0816660000000002</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>586</v>
       </c>
       <c r="B145" t="s">
-        <v>802</v>
-      </c>
-      <c r="C145" t="s">
-        <v>947</v>
-      </c>
-      <c r="D145">
-        <v>54.787700000000001</v>
-      </c>
-      <c r="E145">
-        <v>-6.4923000000000002</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B146" t="s">
-        <v>949</v>
-      </c>
-      <c r="D146">
-        <v>-19.054445000000001</v>
-      </c>
-      <c r="E146">
-        <v>-169.867233</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B147" t="s">
-        <v>951</v>
-      </c>
-      <c r="D147">
-        <v>15.097899999999999</v>
-      </c>
-      <c r="E147">
-        <v>145.6739</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>602</v>
       </c>
       <c r="B148" t="s">
-        <v>952</v>
-      </c>
-      <c r="D148">
-        <v>60.472023999999998</v>
-      </c>
-      <c r="E148">
-        <v>8.4689460000000008</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>623</v>
       </c>
       <c r="B149" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>949</v>
+      </c>
+      <c r="B150" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>951</v>
+      </c>
+      <c r="B151" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>953</v>
       </c>
-      <c r="D149">
-        <v>-40.900556999999999</v>
-      </c>
-      <c r="E149">
-        <v>174.88597100000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="B152" t="s">
         <v>954</v>
       </c>
-      <c r="B150" t="s">
-        <v>955</v>
-      </c>
-      <c r="D150">
-        <v>21.512582999999999</v>
-      </c>
-      <c r="E150">
-        <v>55.923254999999997</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>956</v>
-      </c>
-      <c r="B151" t="s">
-        <v>957</v>
-      </c>
-      <c r="D151">
-        <v>30.375321</v>
-      </c>
-      <c r="E151">
-        <v>69.345116000000004</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>958</v>
-      </c>
-      <c r="B152" t="s">
-        <v>959</v>
-      </c>
-      <c r="D152">
-        <v>8.5379810000000003</v>
-      </c>
-      <c r="E152">
-        <v>-80.782127000000003</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>595</v>
       </c>
       <c r="B153" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>956</v>
+      </c>
+      <c r="B154" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>958</v>
+      </c>
+      <c r="B155" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>960</v>
       </c>
-      <c r="D153">
-        <v>-23.442502999999999</v>
-      </c>
-      <c r="E153">
-        <v>-58.443832</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="B156" t="s">
         <v>961</v>
       </c>
-      <c r="B154" t="s">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>962</v>
       </c>
-      <c r="D154">
-        <v>-9.1899669999999993</v>
-      </c>
-      <c r="E154">
-        <v>-75.015152</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B157" t="s">
         <v>963</v>
       </c>
-      <c r="B155" t="s">
-        <v>964</v>
-      </c>
-      <c r="D155">
-        <v>12.879721</v>
-      </c>
-      <c r="E155">
-        <v>121.774017</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>965</v>
-      </c>
-      <c r="B156" t="s">
-        <v>966</v>
-      </c>
-      <c r="D156">
-        <v>31.952162000000001</v>
-      </c>
-      <c r="E156">
-        <v>35.233153999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>967</v>
-      </c>
-      <c r="B157" t="s">
-        <v>968</v>
-      </c>
-      <c r="D157">
-        <v>-6.3149930000000003</v>
-      </c>
-      <c r="E157">
-        <v>143.95554999999999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>594</v>
       </c>
       <c r="B158" t="s">
-        <v>969</v>
-      </c>
-      <c r="D158">
-        <v>51.919438</v>
-      </c>
-      <c r="E158">
-        <v>19.145136000000001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>562</v>
       </c>
       <c r="B159" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>966</v>
+      </c>
+      <c r="B160" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>968</v>
+      </c>
+      <c r="B161" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>970</v>
       </c>
-      <c r="D159">
-        <v>39.399872000000002</v>
-      </c>
-      <c r="E159">
-        <v>-8.2244539999999997</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="B162" t="s">
         <v>971</v>
       </c>
-      <c r="B160" t="s">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>972</v>
       </c>
-      <c r="D160">
-        <v>40.339852</v>
-      </c>
-      <c r="E160">
-        <v>127.510093</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="B163" t="s">
         <v>973</v>
       </c>
-      <c r="B161" t="s">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>974</v>
       </c>
-      <c r="D161">
-        <v>18.220832999999999</v>
-      </c>
-      <c r="E161">
-        <v>-66.590148999999997</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B164" t="s">
         <v>975</v>
       </c>
-      <c r="B162" t="s">
-        <v>976</v>
-      </c>
-      <c r="D162">
-        <v>25.354825999999999</v>
-      </c>
-      <c r="E162">
-        <v>51.183883999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>977</v>
-      </c>
-      <c r="B163" t="s">
-        <v>978</v>
-      </c>
-      <c r="D163">
-        <v>-21.115141000000001</v>
-      </c>
-      <c r="E163">
-        <v>55.536383999999998</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>979</v>
-      </c>
-      <c r="B164" t="s">
-        <v>980</v>
-      </c>
-      <c r="D164">
-        <v>45.943161000000003</v>
-      </c>
-      <c r="E164">
-        <v>24.966760000000001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>591</v>
       </c>
       <c r="B165" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>977</v>
+      </c>
+      <c r="B166" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>979</v>
+      </c>
+      <c r="B167" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>981</v>
       </c>
-      <c r="D165">
-        <v>-54.429578999999997</v>
-      </c>
-      <c r="E165">
-        <v>-36.587909000000003</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B168" t="s">
         <v>982</v>
       </c>
-      <c r="B166" t="s">
-        <v>983</v>
-      </c>
-      <c r="D166">
-        <v>61.524009999999997</v>
-      </c>
-      <c r="E166">
-        <v>105.31875599999999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>984</v>
-      </c>
-      <c r="B167" t="s">
-        <v>985</v>
-      </c>
-      <c r="D167">
-        <v>-1.9402779999999999</v>
-      </c>
-      <c r="E167">
-        <v>29.873888000000001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>986</v>
-      </c>
-      <c r="B168" t="s">
-        <v>987</v>
-      </c>
-      <c r="D168">
-        <v>-13.759029</v>
-      </c>
-      <c r="E168">
-        <v>-172.10462899999999</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>559</v>
       </c>
       <c r="B169" t="s">
-        <v>802</v>
-      </c>
-      <c r="C169" t="s">
-        <v>988</v>
-      </c>
-      <c r="D169">
-        <v>56.490699999999997</v>
-      </c>
-      <c r="E169">
-        <v>-4.2026000000000003</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B170" t="s">
-        <v>990</v>
-      </c>
-      <c r="D170">
-        <v>3.919305</v>
-      </c>
-      <c r="E170">
-        <v>-56.027782999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>543</v>
       </c>
       <c r="B171" t="s">
-        <v>991</v>
-      </c>
-      <c r="D171">
-        <v>14.497401</v>
-      </c>
-      <c r="E171">
-        <v>-14.452362000000001</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B172" t="s">
-        <v>993</v>
-      </c>
-      <c r="D172">
-        <v>-4.6795739999999997</v>
-      </c>
-      <c r="E172">
-        <v>55.491976999999999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="B173" t="s">
-        <v>995</v>
-      </c>
-      <c r="D173">
-        <v>1.3520829999999999</v>
-      </c>
-      <c r="E173">
-        <v>103.819836</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>627</v>
       </c>
       <c r="B174" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>991</v>
+      </c>
+      <c r="B175" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>993</v>
+      </c>
+      <c r="B176" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>995</v>
+      </c>
+      <c r="B177" t="s">
         <v>996</v>
       </c>
-      <c r="D174">
-        <v>17.357821999999999</v>
-      </c>
-      <c r="E174">
-        <v>-62.782997999999999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>997</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B178" t="s">
         <v>998</v>
       </c>
-      <c r="D175">
-        <v>8.4605549999999994</v>
-      </c>
-      <c r="E175">
-        <v>-11.779889000000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>999</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B179" t="s">
         <v>1000</v>
       </c>
-      <c r="D176">
-        <v>13.794185000000001</v>
-      </c>
-      <c r="E176">
-        <v>-88.896529999999998</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>1001</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B180" t="s">
         <v>1002</v>
       </c>
-      <c r="D177">
-        <v>43.942360000000001</v>
-      </c>
-      <c r="E177">
-        <v>12.457777</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D178">
-        <v>18.082599999999999</v>
-      </c>
-      <c r="E178">
-        <v>-63.052300000000002</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D179">
-        <v>5.1521489999999996</v>
-      </c>
-      <c r="E179">
-        <v>46.199615999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D180">
-        <v>-30.559481999999999</v>
-      </c>
-      <c r="E180">
-        <v>22.937505999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>570</v>
       </c>
       <c r="B181" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B184" t="s">
         <v>1009</v>
       </c>
-      <c r="D181">
-        <v>44.016520999999997</v>
-      </c>
-      <c r="E181">
-        <v>21.005859000000001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D182">
-        <v>12.862807</v>
-      </c>
-      <c r="E182">
-        <v>30.217635999999999</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D183">
-        <v>40.463667000000001</v>
-      </c>
-      <c r="E183">
-        <v>-3.7492200000000002</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D184">
-        <v>0.18636</v>
-      </c>
-      <c r="E184">
-        <v>6.6130810000000002</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>581</v>
       </c>
       <c r="B185" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D185">
-        <v>46.818187999999999</v>
-      </c>
-      <c r="E185">
-        <v>8.2275120000000008</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="B186" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D186">
-        <v>77.553604000000007</v>
-      </c>
-      <c r="E186">
-        <v>23.670272000000001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>613</v>
       </c>
       <c r="B187" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D187">
-        <v>46.151240999999999</v>
-      </c>
-      <c r="E187">
-        <v>14.995463000000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="B188" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D188">
-        <v>-9.6457099999999993</v>
-      </c>
-      <c r="E188">
-        <v>160.156194</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>568</v>
       </c>
       <c r="B189" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B192" t="s">
         <v>1022</v>
       </c>
-      <c r="D189">
-        <v>60.128160999999999</v>
-      </c>
-      <c r="E189">
-        <v>18.643501000000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>1023</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B193" t="s">
         <v>1024</v>
       </c>
-      <c r="D190">
-        <v>-26.522503</v>
-      </c>
-      <c r="E190">
-        <v>31.465865999999998</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>1025</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B194" t="s">
         <v>1026</v>
       </c>
-      <c r="D191">
-        <v>48.669026000000002</v>
-      </c>
-      <c r="E191">
-        <v>19.699024000000001</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>1027</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B195" t="s">
         <v>1028</v>
       </c>
-      <c r="D192">
-        <v>34.802075000000002</v>
-      </c>
-      <c r="E192">
-        <v>38.996814999999998</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>1029</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B196" t="s">
         <v>1030</v>
       </c>
-      <c r="D193">
-        <v>-17.6509</v>
-      </c>
-      <c r="E193">
-        <v>-149.42599999999999</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>1031</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B197" t="s">
         <v>1032</v>
       </c>
-      <c r="D194">
-        <v>-6.3690280000000001</v>
-      </c>
-      <c r="E194">
-        <v>34.888821999999998</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>1033</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B198" t="s">
         <v>1034</v>
       </c>
-      <c r="D195">
-        <v>21.694025</v>
-      </c>
-      <c r="E195">
-        <v>-71.797927999999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>1035</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B199" t="s">
         <v>1036</v>
       </c>
-      <c r="D196">
-        <v>-21.178985999999998</v>
-      </c>
-      <c r="E196">
-        <v>-175.19824199999999</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>1037</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B200" t="s">
         <v>1038</v>
       </c>
-      <c r="D197">
-        <v>15.870032</v>
-      </c>
-      <c r="E197">
-        <v>100.992541</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>1039</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B201" t="s">
         <v>1040</v>
       </c>
-      <c r="D198">
-        <v>38.861033999999997</v>
-      </c>
-      <c r="E198">
-        <v>71.276093000000003</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>1041</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B202" t="s">
         <v>1042</v>
       </c>
-      <c r="D199">
-        <v>38.969718999999998</v>
-      </c>
-      <c r="E199">
-        <v>59.556277999999999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>1043</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B203" t="s">
         <v>1044</v>
       </c>
-      <c r="D200">
-        <v>-8.8742169999999998</v>
-      </c>
-      <c r="E200">
-        <v>125.72753899999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>1045</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B204" t="s">
         <v>1046</v>
       </c>
-      <c r="D201">
-        <v>8.6195430000000002</v>
-      </c>
-      <c r="E201">
-        <v>0.82478200000000002</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D202">
-        <v>23.69781</v>
-      </c>
-      <c r="E202">
-        <v>120.960515</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D203">
-        <v>10.691803</v>
-      </c>
-      <c r="E203">
-        <v>-61.222503000000003</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D204">
-        <v>33.886916999999997</v>
-      </c>
-      <c r="E204">
-        <v>9.5374990000000004</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>578</v>
       </c>
       <c r="B205" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B208" t="s">
         <v>1053</v>
       </c>
-      <c r="D205">
-        <v>38.963745000000003</v>
-      </c>
-      <c r="E205">
-        <v>35.243321999999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B206" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D206">
-        <v>-7.1095350000000002</v>
-      </c>
-      <c r="E206">
-        <v>177.64932999999999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D207">
-        <v>23.424075999999999</v>
-      </c>
-      <c r="E207">
-        <v>53.847817999999997</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B208" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D208">
-        <v>1.3733329999999999</v>
-      </c>
-      <c r="E208">
-        <v>32.290275000000001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>565</v>
       </c>
       <c r="B209" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D209">
-        <v>48.379432999999999</v>
-      </c>
-      <c r="E209">
-        <v>31.165579999999999</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>569</v>
       </c>
       <c r="B210" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D210">
-        <v>-32.522779</v>
-      </c>
-      <c r="E210">
-        <v>-55.765835000000003</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>554</v>
       </c>
       <c r="B211" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B214" t="s">
         <v>1062</v>
       </c>
-      <c r="D211">
-        <v>37.090240000000001</v>
-      </c>
-      <c r="E211">
-        <v>-95.712890999999999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>1063</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B215" t="s">
         <v>1064</v>
       </c>
-      <c r="D212">
-        <v>41.377490999999999</v>
-      </c>
-      <c r="E212">
-        <v>64.585262</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>1065</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B216" t="s">
         <v>1066</v>
       </c>
-      <c r="D213">
-        <v>-15.376706</v>
-      </c>
-      <c r="E213">
-        <v>166.959158</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>1067</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B217" t="s">
         <v>1068</v>
       </c>
-      <c r="D214">
-        <v>6.4237500000000001</v>
-      </c>
-      <c r="E214">
-        <v>-66.589730000000003</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>1069</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B218" t="s">
         <v>1070</v>
       </c>
-      <c r="D215">
-        <v>18.420694999999998</v>
-      </c>
-      <c r="E215">
-        <v>-64.639967999999996</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D216">
-        <v>14.058324000000001</v>
-      </c>
-      <c r="E216">
-        <v>108.277199</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D217">
-        <v>12.984305000000001</v>
-      </c>
-      <c r="E217">
-        <v>-61.287227999999999</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D218">
-        <v>18.335764999999999</v>
-      </c>
-      <c r="E218">
-        <v>-64.896334999999993</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>571</v>
       </c>
       <c r="B219" t="s">
-        <v>802</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D219">
-        <v>51.130699999999997</v>
-      </c>
-      <c r="E219">
-        <v>-3.7837000000000001</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="B220" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D220">
-        <v>15.552727000000001</v>
-      </c>
-      <c r="E220">
-        <v>48.516387999999999</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="B221" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D221">
-        <v>-13.133896999999999</v>
-      </c>
-      <c r="E221">
-        <v>27.849332</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="B222" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D222">
-        <v>-6.1356999999999999</v>
-      </c>
-      <c r="E222">
-        <v>39.362099999999998</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>611</v>
       </c>
       <c r="B223" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D223">
-        <v>-19.015438</v>
-      </c>
-      <c r="E223">
-        <v>29.154857</v>
+        <v>1077</v>
       </c>
     </row>
   </sheetData>

--- a/EPL Data/EPL Data.xlsx
+++ b/EPL Data/EPL Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiaju\Documents\GitHub\NeverFindMe\EPL Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COP511\NeverFindMe\EPL Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B3C786-4EF9-4421-9F57-EA76F88BF3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF713B28-C681-44DF-80B7-5296930F7471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="1815" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Info" sheetId="1" r:id="rId1"/>
@@ -2336,9 +2336,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
     <t>Cameroon</t>
   </si>
   <si>
@@ -3273,6 +3270,9 @@
   </si>
   <si>
     <t>Win_Team</t>
+  </si>
+  <si>
+    <t>Côte-d''Ivoire</t>
   </si>
 </sst>
 </file>
@@ -40406,7 +40406,7 @@
         <v>669</v>
       </c>
       <c r="B1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C1" t="s">
         <v>674</v>
@@ -50093,7 +50093,7 @@
         <v>669</v>
       </c>
       <c r="B1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C1" t="s">
         <v>674</v>
@@ -64110,7 +64110,7 @@
   <dimension ref="A1:B223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64197,7 +64197,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>710</v>
+        <v>603</v>
       </c>
       <c r="B11" t="s">
         <v>712</v>
@@ -64448,7 +64448,7 @@
         <v>572</v>
       </c>
       <c r="B42" t="s">
-        <v>767</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -64456,7 +64456,7 @@
         <v>579</v>
       </c>
       <c r="B43" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -64464,15 +64464,15 @@
         <v>596</v>
       </c>
       <c r="B44" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>769</v>
+      </c>
+      <c r="B45" t="s">
         <v>770</v>
-      </c>
-      <c r="B45" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -64480,31 +64480,31 @@
         <v>599</v>
       </c>
       <c r="B46" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>772</v>
+      </c>
+      <c r="B47" t="s">
         <v>773</v>
-      </c>
-      <c r="B47" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>774</v>
+      </c>
+      <c r="B48" t="s">
         <v>775</v>
-      </c>
-      <c r="B48" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>776</v>
+      </c>
+      <c r="B49" t="s">
         <v>777</v>
-      </c>
-      <c r="B49" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -64512,39 +64512,39 @@
         <v>553</v>
       </c>
       <c r="B50" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>779</v>
+      </c>
+      <c r="B51" t="s">
         <v>780</v>
-      </c>
-      <c r="B51" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>781</v>
+      </c>
+      <c r="B52" t="s">
         <v>782</v>
-      </c>
-      <c r="B52" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>783</v>
+      </c>
+      <c r="B53" t="s">
         <v>784</v>
-      </c>
-      <c r="B53" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>785</v>
+      </c>
+      <c r="B54" t="s">
         <v>786</v>
-      </c>
-      <c r="B54" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -64552,7 +64552,7 @@
         <v>592</v>
       </c>
       <c r="B55" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -64560,39 +64560,39 @@
         <v>556</v>
       </c>
       <c r="B56" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>789</v>
+      </c>
+      <c r="B57" t="s">
         <v>790</v>
-      </c>
-      <c r="B57" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>791</v>
+      </c>
+      <c r="B58" t="s">
         <v>792</v>
-      </c>
-      <c r="B58" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>793</v>
+      </c>
+      <c r="B59" t="s">
         <v>794</v>
-      </c>
-      <c r="B59" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>795</v>
+      </c>
+      <c r="B60" t="s">
         <v>796</v>
-      </c>
-      <c r="B60" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -64600,7 +64600,7 @@
         <v>575</v>
       </c>
       <c r="B61" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -64608,23 +64608,23 @@
         <v>540</v>
       </c>
       <c r="B62" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>799</v>
+      </c>
+      <c r="B63" t="s">
         <v>800</v>
-      </c>
-      <c r="B63" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>801</v>
+      </c>
+      <c r="B64" t="s">
         <v>802</v>
-      </c>
-      <c r="B64" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -64632,39 +64632,39 @@
         <v>548</v>
       </c>
       <c r="B65" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>804</v>
+      </c>
+      <c r="B66" t="s">
         <v>805</v>
-      </c>
-      <c r="B66" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>806</v>
+      </c>
+      <c r="B67" t="s">
         <v>807</v>
-      </c>
-      <c r="B67" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>808</v>
+      </c>
+      <c r="B68" t="s">
         <v>809</v>
-      </c>
-      <c r="B68" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>810</v>
+      </c>
+      <c r="B69" t="s">
         <v>811</v>
-      </c>
-      <c r="B69" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -64672,15 +64672,15 @@
         <v>549</v>
       </c>
       <c r="B70" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>813</v>
+      </c>
+      <c r="B71" t="s">
         <v>814</v>
-      </c>
-      <c r="B71" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -64688,23 +64688,23 @@
         <v>601</v>
       </c>
       <c r="B72" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>816</v>
+      </c>
+      <c r="B73" t="s">
         <v>817</v>
-      </c>
-      <c r="B73" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>818</v>
+      </c>
+      <c r="B74" t="s">
         <v>819</v>
-      </c>
-      <c r="B74" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -64712,7 +64712,7 @@
         <v>545</v>
       </c>
       <c r="B75" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -64720,31 +64720,31 @@
         <v>588</v>
       </c>
       <c r="B76" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>822</v>
+      </c>
+      <c r="B77" t="s">
         <v>823</v>
-      </c>
-      <c r="B77" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>824</v>
+      </c>
+      <c r="B78" t="s">
         <v>825</v>
-      </c>
-      <c r="B78" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>826</v>
+      </c>
+      <c r="B79" t="s">
         <v>827</v>
-      </c>
-      <c r="B79" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -64752,23 +64752,23 @@
         <v>584</v>
       </c>
       <c r="B80" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>829</v>
+      </c>
+      <c r="B81" t="s">
         <v>830</v>
-      </c>
-      <c r="B81" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>831</v>
+      </c>
+      <c r="B82" t="s">
         <v>832</v>
-      </c>
-      <c r="B82" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -64776,79 +64776,79 @@
         <v>580</v>
       </c>
       <c r="B83" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>834</v>
+      </c>
+      <c r="B84" t="s">
         <v>835</v>
-      </c>
-      <c r="B84" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>836</v>
+      </c>
+      <c r="B85" t="s">
         <v>837</v>
-      </c>
-      <c r="B85" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>838</v>
+      </c>
+      <c r="B86" t="s">
         <v>839</v>
-      </c>
-      <c r="B86" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>840</v>
+      </c>
+      <c r="B87" t="s">
         <v>841</v>
-      </c>
-      <c r="B87" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>842</v>
+      </c>
+      <c r="B88" t="s">
         <v>843</v>
-      </c>
-      <c r="B88" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>844</v>
+      </c>
+      <c r="B89" t="s">
         <v>845</v>
-      </c>
-      <c r="B89" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>846</v>
+      </c>
+      <c r="B90" t="s">
         <v>847</v>
-      </c>
-      <c r="B90" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>848</v>
+      </c>
+      <c r="B91" t="s">
         <v>849</v>
-      </c>
-      <c r="B91" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>850</v>
+      </c>
+      <c r="B92" t="s">
         <v>851</v>
-      </c>
-      <c r="B92" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -64856,7 +64856,7 @@
         <v>583</v>
       </c>
       <c r="B93" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -64864,15 +64864,15 @@
         <v>621</v>
       </c>
       <c r="B94" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>854</v>
+      </c>
+      <c r="B95" t="s">
         <v>855</v>
-      </c>
-      <c r="B95" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -64880,15 +64880,15 @@
         <v>605</v>
       </c>
       <c r="B96" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>857</v>
+      </c>
+      <c r="B97" t="s">
         <v>858</v>
-      </c>
-      <c r="B97" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -64896,7 +64896,7 @@
         <v>551</v>
       </c>
       <c r="B98" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -64904,15 +64904,15 @@
         <v>590</v>
       </c>
       <c r="B99" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>861</v>
+      </c>
+      <c r="B100" t="s">
         <v>862</v>
-      </c>
-      <c r="B100" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -64920,39 +64920,39 @@
         <v>582</v>
       </c>
       <c r="B101" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>864</v>
+      </c>
+      <c r="B102" t="s">
         <v>865</v>
-      </c>
-      <c r="B102" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>866</v>
+      </c>
+      <c r="B103" t="s">
         <v>867</v>
-      </c>
-      <c r="B103" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>868</v>
+      </c>
+      <c r="B104" t="s">
         <v>869</v>
-      </c>
-      <c r="B104" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>870</v>
+      </c>
+      <c r="B105" t="s">
         <v>871</v>
-      </c>
-      <c r="B105" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -64960,119 +64960,119 @@
         <v>598</v>
       </c>
       <c r="B106" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>873</v>
+      </c>
+      <c r="B107" t="s">
         <v>874</v>
-      </c>
-      <c r="B107" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>875</v>
+      </c>
+      <c r="B108" t="s">
         <v>876</v>
-      </c>
-      <c r="B108" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>877</v>
+      </c>
+      <c r="B109" t="s">
         <v>878</v>
-      </c>
-      <c r="B109" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>879</v>
+      </c>
+      <c r="B110" t="s">
         <v>880</v>
-      </c>
-      <c r="B110" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>881</v>
+      </c>
+      <c r="B111" t="s">
         <v>882</v>
-      </c>
-      <c r="B111" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>883</v>
+      </c>
+      <c r="B112" t="s">
         <v>884</v>
-      </c>
-      <c r="B112" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>885</v>
+      </c>
+      <c r="B113" t="s">
         <v>886</v>
-      </c>
-      <c r="B113" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>887</v>
+      </c>
+      <c r="B114" t="s">
         <v>888</v>
-      </c>
-      <c r="B114" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>889</v>
+      </c>
+      <c r="B115" t="s">
         <v>890</v>
-      </c>
-      <c r="B115" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>891</v>
+      </c>
+      <c r="B116" t="s">
         <v>892</v>
-      </c>
-      <c r="B116" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>893</v>
+      </c>
+      <c r="B117" t="s">
         <v>894</v>
-      </c>
-      <c r="B117" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>895</v>
+      </c>
+      <c r="B118" t="s">
         <v>896</v>
-      </c>
-      <c r="B118" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>897</v>
+      </c>
+      <c r="B119" t="s">
         <v>898</v>
-      </c>
-      <c r="B119" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>899</v>
+      </c>
+      <c r="B120" t="s">
         <v>900</v>
-      </c>
-      <c r="B120" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -65080,31 +65080,31 @@
         <v>557</v>
       </c>
       <c r="B121" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>902</v>
+      </c>
+      <c r="B122" t="s">
         <v>903</v>
-      </c>
-      <c r="B122" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>904</v>
+      </c>
+      <c r="B123" t="s">
         <v>905</v>
-      </c>
-      <c r="B123" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>906</v>
+      </c>
+      <c r="B124" t="s">
         <v>907</v>
-      </c>
-      <c r="B124" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -65112,7 +65112,7 @@
         <v>615</v>
       </c>
       <c r="B125" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -65120,7 +65120,7 @@
         <v>607</v>
       </c>
       <c r="B126" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -65128,55 +65128,55 @@
         <v>619</v>
       </c>
       <c r="B127" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>911</v>
+      </c>
+      <c r="B128" t="s">
         <v>912</v>
-      </c>
-      <c r="B128" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>913</v>
+      </c>
+      <c r="B129" t="s">
         <v>914</v>
-      </c>
-      <c r="B129" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>915</v>
+      </c>
+      <c r="B130" t="s">
         <v>916</v>
-      </c>
-      <c r="B130" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>917</v>
+      </c>
+      <c r="B131" t="s">
         <v>918</v>
-      </c>
-      <c r="B131" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>919</v>
+      </c>
+      <c r="B132" t="s">
         <v>920</v>
-      </c>
-      <c r="B132" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>921</v>
+      </c>
+      <c r="B133" t="s">
         <v>922</v>
-      </c>
-      <c r="B133" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -65184,55 +65184,55 @@
         <v>625</v>
       </c>
       <c r="B134" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>924</v>
+      </c>
+      <c r="B135" t="s">
         <v>925</v>
-      </c>
-      <c r="B135" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>926</v>
+      </c>
+      <c r="B136" t="s">
         <v>927</v>
-      </c>
-      <c r="B136" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>928</v>
+      </c>
+      <c r="B137" t="s">
         <v>929</v>
-      </c>
-      <c r="B137" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>930</v>
+      </c>
+      <c r="B138" t="s">
         <v>931</v>
-      </c>
-      <c r="B138" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>932</v>
+      </c>
+      <c r="B139" t="s">
         <v>933</v>
-      </c>
-      <c r="B139" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>934</v>
+      </c>
+      <c r="B140" t="s">
         <v>935</v>
-      </c>
-      <c r="B140" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -65240,15 +65240,15 @@
         <v>566</v>
       </c>
       <c r="B141" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>937</v>
+      </c>
+      <c r="B142" t="s">
         <v>938</v>
-      </c>
-      <c r="B142" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -65256,15 +65256,15 @@
         <v>573</v>
       </c>
       <c r="B143" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>940</v>
+      </c>
+      <c r="B144" t="s">
         <v>941</v>
-      </c>
-      <c r="B144" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -65272,23 +65272,23 @@
         <v>586</v>
       </c>
       <c r="B145" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>942</v>
+      </c>
+      <c r="B146" t="s">
         <v>943</v>
-      </c>
-      <c r="B146" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>944</v>
+      </c>
+      <c r="B147" t="s">
         <v>945</v>
-      </c>
-      <c r="B147" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -65296,7 +65296,7 @@
         <v>602</v>
       </c>
       <c r="B148" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -65304,31 +65304,31 @@
         <v>623</v>
       </c>
       <c r="B149" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>948</v>
+      </c>
+      <c r="B150" t="s">
         <v>949</v>
-      </c>
-      <c r="B150" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>950</v>
+      </c>
+      <c r="B151" t="s">
         <v>951</v>
-      </c>
-      <c r="B151" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>952</v>
+      </c>
+      <c r="B152" t="s">
         <v>953</v>
-      </c>
-      <c r="B152" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -65336,39 +65336,39 @@
         <v>595</v>
       </c>
       <c r="B153" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>955</v>
+      </c>
+      <c r="B154" t="s">
         <v>956</v>
-      </c>
-      <c r="B154" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>957</v>
+      </c>
+      <c r="B155" t="s">
         <v>958</v>
-      </c>
-      <c r="B155" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>959</v>
+      </c>
+      <c r="B156" t="s">
         <v>960</v>
-      </c>
-      <c r="B156" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>961</v>
+      </c>
+      <c r="B157" t="s">
         <v>962</v>
-      </c>
-      <c r="B157" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -65376,7 +65376,7 @@
         <v>594</v>
       </c>
       <c r="B158" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -65384,47 +65384,47 @@
         <v>562</v>
       </c>
       <c r="B159" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>965</v>
+      </c>
+      <c r="B160" t="s">
         <v>966</v>
-      </c>
-      <c r="B160" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>967</v>
+      </c>
+      <c r="B161" t="s">
         <v>968</v>
-      </c>
-      <c r="B161" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>969</v>
+      </c>
+      <c r="B162" t="s">
         <v>970</v>
-      </c>
-      <c r="B162" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>971</v>
+      </c>
+      <c r="B163" t="s">
         <v>972</v>
-      </c>
-      <c r="B163" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>973</v>
+      </c>
+      <c r="B164" t="s">
         <v>974</v>
-      </c>
-      <c r="B164" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -65432,31 +65432,31 @@
         <v>591</v>
       </c>
       <c r="B165" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>976</v>
+      </c>
+      <c r="B166" t="s">
         <v>977</v>
-      </c>
-      <c r="B166" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>978</v>
+      </c>
+      <c r="B167" t="s">
         <v>979</v>
-      </c>
-      <c r="B167" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>980</v>
+      </c>
+      <c r="B168" t="s">
         <v>981</v>
-      </c>
-      <c r="B168" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -65464,15 +65464,15 @@
         <v>559</v>
       </c>
       <c r="B169" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>982</v>
+      </c>
+      <c r="B170" t="s">
         <v>983</v>
-      </c>
-      <c r="B170" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -65480,23 +65480,23 @@
         <v>543</v>
       </c>
       <c r="B171" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>985</v>
+      </c>
+      <c r="B172" t="s">
         <v>986</v>
-      </c>
-      <c r="B172" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>987</v>
+      </c>
+      <c r="B173" t="s">
         <v>988</v>
-      </c>
-      <c r="B173" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -65504,55 +65504,55 @@
         <v>627</v>
       </c>
       <c r="B174" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>990</v>
+      </c>
+      <c r="B175" t="s">
         <v>991</v>
-      </c>
-      <c r="B175" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>992</v>
+      </c>
+      <c r="B176" t="s">
         <v>993</v>
-      </c>
-      <c r="B176" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>994</v>
+      </c>
+      <c r="B177" t="s">
         <v>995</v>
-      </c>
-      <c r="B177" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>996</v>
+      </c>
+      <c r="B178" t="s">
         <v>997</v>
-      </c>
-      <c r="B178" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>998</v>
+      </c>
+      <c r="B179" t="s">
         <v>999</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B180" t="s">
         <v>1001</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -65560,31 +65560,31 @@
         <v>570</v>
       </c>
       <c r="B181" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B182" t="s">
         <v>1004</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B183" t="s">
         <v>1006</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B184" t="s">
         <v>1008</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -65592,15 +65592,15 @@
         <v>581</v>
       </c>
       <c r="B185" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B186" t="s">
         <v>1011</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -65608,15 +65608,15 @@
         <v>613</v>
       </c>
       <c r="B187" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B188" t="s">
         <v>1014</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -65624,127 +65624,127 @@
         <v>568</v>
       </c>
       <c r="B189" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B190" t="s">
         <v>1017</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B191" t="s">
         <v>1019</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B192" t="s">
         <v>1021</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B193" t="s">
         <v>1023</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B194" t="s">
         <v>1025</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B195" t="s">
         <v>1027</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B196" t="s">
         <v>1029</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B197" t="s">
         <v>1031</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B198" t="s">
         <v>1033</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B199" t="s">
         <v>1035</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B200" t="s">
         <v>1037</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B201" t="s">
         <v>1039</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B202" t="s">
         <v>1041</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B203" t="s">
         <v>1043</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B204" t="s">
         <v>1045</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -65752,31 +65752,31 @@
         <v>578</v>
       </c>
       <c r="B205" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B206" t="s">
         <v>1048</v>
-      </c>
-      <c r="B206" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B207" t="s">
         <v>1050</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B208" t="s">
         <v>1052</v>
-      </c>
-      <c r="B208" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -65784,7 +65784,7 @@
         <v>565</v>
       </c>
       <c r="B209" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -65792,7 +65792,7 @@
         <v>569</v>
       </c>
       <c r="B210" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -65800,63 +65800,63 @@
         <v>554</v>
       </c>
       <c r="B211" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B212" t="s">
         <v>1057</v>
-      </c>
-      <c r="B212" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B213" t="s">
         <v>1059</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B214" t="s">
         <v>1061</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B215" t="s">
         <v>1063</v>
-      </c>
-      <c r="B215" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B216" t="s">
         <v>1065</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B217" t="s">
         <v>1067</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B218" t="s">
         <v>1069</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -65864,31 +65864,31 @@
         <v>571</v>
       </c>
       <c r="B219" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B220" t="s">
         <v>1071</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B221" t="s">
         <v>1073</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B222" t="s">
         <v>1075</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -65896,7 +65896,7 @@
         <v>611</v>
       </c>
       <c r="B223" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
   </sheetData>

--- a/EPL Data/EPL Data.xlsx
+++ b/EPL Data/EPL Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COP511\NeverFindMe\EPL Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07F5D6C-CB4F-4797-B378-C14081978163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD90C132-2C8A-4E1C-9FAE-F08CDCCF4EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Info" sheetId="1" r:id="rId1"/>
@@ -3590,7 +3590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
@@ -12666,8 +12666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A91D09-536A-4B68-9BF3-03FC79C24A17}">
   <dimension ref="A1:L533"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="K533" sqref="K533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -32911,7 +32911,7 @@
         <v>0</v>
       </c>
       <c r="H533">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I533">
         <v>0</v>

--- a/EPL Data/EPL Data.xlsx
+++ b/EPL Data/EPL Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COP511\NeverFindMe\EPL Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD90C132-2C8A-4E1C-9FAE-F08CDCCF4EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7FE295-A193-4004-A820-D7D3E6A4B9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Info" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="1080">
   <si>
     <t>Name</t>
   </si>
@@ -3270,6 +3270,9 @@
   </si>
   <si>
     <t>Côte-d''Ivoire</t>
+  </si>
+  <si>
+    <t>Turf Moor</t>
   </si>
 </sst>
 </file>
@@ -12666,7 +12669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A91D09-536A-4B68-9BF3-03FC79C24A17}">
   <dimension ref="A1:L533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+    <sheetView topLeftCell="A514" workbookViewId="0">
       <selection activeCell="K533" sqref="K533"/>
     </sheetView>
   </sheetViews>
@@ -32935,8 +32938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817AFB70-CA18-4EA5-9303-4A6B82D121BC}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32993,7 +32996,7 @@
         <v>621</v>
       </c>
       <c r="C5" t="s">
-        <v>634</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -33174,6 +33177,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/EPL Data/EPL Data.xlsx
+++ b/EPL Data/EPL Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COP511\NeverFindMe\EPL Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7FE295-A193-4004-A820-D7D3E6A4B9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4CBE46-B668-40AD-977F-80B6C42216F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Info" sheetId="1" r:id="rId1"/>
@@ -3593,8 +3593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E533"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32938,8 +32938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817AFB70-CA18-4EA5-9303-4A6B82D121BC}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33872,8 +33872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B947B6AA-369F-466D-B006-B5675E46CA63}">
   <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
